--- a/LSTM/600233.xlsx
+++ b/LSTM/600233.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27425"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ThomasTemp\PythonProject\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67798E29-1E6B-4B64-9201-C73F8BD7AEB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -46,11 +40,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -102,7 +96,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -110,31 +104,19 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -172,7 +154,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -206,7 +188,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -241,10 +222,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -417,19 +397,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G277"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G287"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="7" max="7" width="11.5703125" style="4" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -448,88 +423,88 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" s="2">
         <v>44929</v>
       </c>
       <c r="B2">
-        <v>20.129999160766602</v>
+        <v>20.1299991607666</v>
       </c>
       <c r="C2">
         <v>20.29000091552734</v>
       </c>
       <c r="D2">
-        <v>19.879999160766602</v>
+        <v>19.8799991607666</v>
       </c>
       <c r="E2">
-        <v>19.979999542236332</v>
+        <v>19.97999954223633</v>
       </c>
       <c r="F2">
-        <v>19.657741546630859</v>
-      </c>
-      <c r="G2" s="4">
+        <v>19.65774154663086</v>
+      </c>
+      <c r="G2">
         <v>12179352</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3" s="2">
         <v>44930</v>
       </c>
       <c r="B3">
-        <v>19.979999542236332</v>
+        <v>19.97999954223633</v>
       </c>
       <c r="C3">
-        <v>20.079999923706051</v>
+        <v>20.07999992370605</v>
       </c>
       <c r="D3">
-        <v>19.520000457763668</v>
+        <v>19.52000045776367</v>
       </c>
       <c r="E3">
-        <v>19.870000839233398</v>
+        <v>19.8700008392334</v>
       </c>
       <c r="F3">
-        <v>19.549516677856449</v>
-      </c>
-      <c r="G3" s="4">
+        <v>19.54951667785645</v>
+      </c>
+      <c r="G3">
         <v>13154086</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="A4" s="2">
         <v>44931</v>
       </c>
       <c r="B4">
-        <v>20.059999465942379</v>
+        <v>20.05999946594238</v>
       </c>
       <c r="C4">
-        <v>20.530000686645511</v>
+        <v>20.53000068664551</v>
       </c>
       <c r="D4">
-        <v>19.879999160766602</v>
+        <v>19.8799991607666</v>
       </c>
       <c r="E4">
-        <v>20.090000152587891</v>
+        <v>20.09000015258789</v>
       </c>
       <c r="F4">
         <v>19.76596832275391</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4">
         <v>14542288</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="A5" s="2">
         <v>44932</v>
       </c>
       <c r="B5">
-        <v>20.129999160766602</v>
+        <v>20.1299991607666</v>
       </c>
       <c r="C5">
-        <v>20.129999160766602</v>
+        <v>20.1299991607666</v>
       </c>
       <c r="D5">
         <v>19.35000038146973</v>
@@ -538,13 +513,13 @@
         <v>19.54999923706055</v>
       </c>
       <c r="F5">
-        <v>19.234676361083981</v>
-      </c>
-      <c r="G5" s="4">
+        <v>19.23467636108398</v>
+      </c>
+      <c r="G5">
         <v>17486243</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
       <c r="A6" s="2">
         <v>44935</v>
       </c>
@@ -552,22 +527,22 @@
         <v>19.39999961853027</v>
       </c>
       <c r="C6">
-        <v>20.059999465942379</v>
+        <v>20.05999946594238</v>
       </c>
       <c r="D6">
         <v>19.39999961853027</v>
       </c>
       <c r="E6">
-        <v>19.739999771118161</v>
+        <v>19.73999977111816</v>
       </c>
       <c r="F6">
-        <v>19.421613693237301</v>
-      </c>
-      <c r="G6" s="4">
+        <v>19.4216136932373</v>
+      </c>
+      <c r="G6">
         <v>11512001</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7">
       <c r="A7" s="2">
         <v>44936</v>
       </c>
@@ -575,68 +550,68 @@
         <v>20.60000038146973</v>
       </c>
       <c r="C7">
-        <v>20.979999542236332</v>
+        <v>20.97999954223633</v>
       </c>
       <c r="D7">
         <v>19.75</v>
       </c>
       <c r="E7">
-        <v>19.889999389648441</v>
+        <v>19.88999938964844</v>
       </c>
       <c r="F7">
-        <v>19.569192886352539</v>
-      </c>
-      <c r="G7" s="4">
+        <v>19.56919288635254</v>
+      </c>
+      <c r="G7">
         <v>36663172</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7">
       <c r="A8" s="2">
         <v>44937</v>
       </c>
       <c r="B8">
-        <v>19.889999389648441</v>
+        <v>19.88999938964844</v>
       </c>
       <c r="C8">
-        <v>20.770000457763668</v>
+        <v>20.77000045776367</v>
       </c>
       <c r="D8">
-        <v>19.780000686645511</v>
+        <v>19.78000068664551</v>
       </c>
       <c r="E8">
         <v>20.39999961853027</v>
       </c>
       <c r="F8">
-        <v>20.070968627929691</v>
-      </c>
-      <c r="G8" s="4">
+        <v>20.07096862792969</v>
+      </c>
+      <c r="G8">
         <v>22374803</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7">
       <c r="A9" s="2">
         <v>44938</v>
       </c>
       <c r="B9">
-        <v>20.340000152587891</v>
+        <v>20.34000015258789</v>
       </c>
       <c r="C9">
         <v>20.64999961853027</v>
       </c>
       <c r="D9">
-        <v>20.309999465942379</v>
+        <v>20.30999946594238</v>
       </c>
       <c r="E9">
-        <v>20.610000610351559</v>
+        <v>20.61000061035156</v>
       </c>
       <c r="F9">
-        <v>20.277582168579102</v>
-      </c>
-      <c r="G9" s="4">
+        <v>20.2775821685791</v>
+      </c>
+      <c r="G9">
         <v>12946199</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7">
       <c r="A10" s="2">
         <v>44939</v>
       </c>
@@ -650,44 +625,44 @@
         <v>20.60000038146973</v>
       </c>
       <c r="E10">
-        <v>21.260000228881839</v>
+        <v>21.26000022888184</v>
       </c>
       <c r="F10">
-        <v>20.917097091674801</v>
-      </c>
-      <c r="G10" s="4">
+        <v>20.9170970916748</v>
+      </c>
+      <c r="G10">
         <v>15916565</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7">
       <c r="A11" s="2">
         <v>44942</v>
       </c>
       <c r="B11">
-        <v>21.379999160766602</v>
+        <v>21.3799991607666</v>
       </c>
       <c r="C11">
-        <v>21.379999160766602</v>
+        <v>21.3799991607666</v>
       </c>
       <c r="D11">
-        <v>20.870000839233398</v>
+        <v>20.8700008392334</v>
       </c>
       <c r="E11">
-        <v>21.030000686645511</v>
+        <v>21.03000068664551</v>
       </c>
       <c r="F11">
         <v>20.6908073425293</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11">
         <v>19134958</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7">
       <c r="A12" s="2">
         <v>44943</v>
       </c>
       <c r="B12">
-        <v>21.010000228881839</v>
+        <v>21.01000022888184</v>
       </c>
       <c r="C12">
         <v>21.29000091552734</v>
@@ -696,16 +671,16 @@
         <v>20.70000076293945</v>
       </c>
       <c r="E12">
-        <v>21.219999313354489</v>
+        <v>21.21999931335449</v>
       </c>
       <c r="F12">
-        <v>20.877740859985352</v>
-      </c>
-      <c r="G12" s="4">
+        <v>20.87774085998535</v>
+      </c>
+      <c r="G12">
         <v>9637588</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7">
       <c r="A13" s="2">
         <v>44944</v>
       </c>
@@ -719,85 +694,85 @@
         <v>20.79000091552734</v>
       </c>
       <c r="E13">
-        <v>20.989999771118161</v>
+        <v>20.98999977111816</v>
       </c>
       <c r="F13">
         <v>20.65145111083984</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13">
         <v>8284334</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7">
       <c r="A14" s="2">
         <v>44945</v>
       </c>
       <c r="B14">
-        <v>21.139999389648441</v>
+        <v>21.13999938964844</v>
       </c>
       <c r="C14">
-        <v>21.430000305175781</v>
+        <v>21.43000030517578</v>
       </c>
       <c r="D14">
-        <v>20.809999465942379</v>
+        <v>20.80999946594238</v>
       </c>
       <c r="E14">
-        <v>21.219999313354489</v>
+        <v>21.21999931335449</v>
       </c>
       <c r="F14">
-        <v>20.877740859985352</v>
-      </c>
-      <c r="G14" s="4">
+        <v>20.87774085998535</v>
+      </c>
+      <c r="G14">
         <v>6692053</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7">
       <c r="A15" s="2">
         <v>44946</v>
       </c>
       <c r="B15">
-        <v>21.219999313354489</v>
+        <v>21.21999931335449</v>
       </c>
       <c r="C15">
         <v>21.45000076293945</v>
       </c>
       <c r="D15">
-        <v>21.159999847412109</v>
+        <v>21.15999984741211</v>
       </c>
       <c r="E15">
-        <v>21.329999923706051</v>
+        <v>21.32999992370605</v>
       </c>
       <c r="F15">
-        <v>20.985967636108398</v>
-      </c>
-      <c r="G15" s="4">
+        <v>20.9859676361084</v>
+      </c>
+      <c r="G15">
         <v>6331055</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7">
       <c r="A16" s="2">
         <v>44956</v>
       </c>
       <c r="B16">
-        <v>21.579999923706051</v>
+        <v>21.57999992370605</v>
       </c>
       <c r="C16">
-        <v>21.680000305175781</v>
+        <v>21.68000030517578</v>
       </c>
       <c r="D16">
-        <v>20.530000686645511</v>
+        <v>20.53000068664551</v>
       </c>
       <c r="E16">
         <v>20.64999961853027</v>
       </c>
       <c r="F16">
-        <v>20.316934585571289</v>
-      </c>
-      <c r="G16" s="4">
+        <v>20.31693458557129</v>
+      </c>
+      <c r="G16">
         <v>22102995</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7">
       <c r="A17" s="2">
         <v>44957</v>
       </c>
@@ -811,44 +786,44 @@
         <v>20.70000076293945</v>
       </c>
       <c r="E17">
-        <v>20.989999771118161</v>
+        <v>20.98999977111816</v>
       </c>
       <c r="F17">
         <v>20.65145111083984</v>
       </c>
-      <c r="G17" s="4">
+      <c r="G17">
         <v>14182364</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7">
       <c r="A18" s="2">
         <v>44958</v>
       </c>
       <c r="B18">
-        <v>21.090000152587891</v>
+        <v>21.09000015258789</v>
       </c>
       <c r="C18">
-        <v>21.190000534057621</v>
+        <v>21.19000053405762</v>
       </c>
       <c r="D18">
         <v>20.64999961853027</v>
       </c>
       <c r="E18">
-        <v>20.870000839233398</v>
+        <v>20.8700008392334</v>
       </c>
       <c r="F18">
-        <v>20.533388137817379</v>
-      </c>
-      <c r="G18" s="4">
+        <v>20.53338813781738</v>
+      </c>
+      <c r="G18">
         <v>16681870</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7">
       <c r="A19" s="2">
         <v>44959</v>
       </c>
       <c r="B19">
-        <v>20.920000076293949</v>
+        <v>20.92000007629395</v>
       </c>
       <c r="C19">
         <v>21</v>
@@ -857,16 +832,16 @@
         <v>20.60000038146973</v>
       </c>
       <c r="E19">
-        <v>20.829999923706051</v>
+        <v>20.82999992370605</v>
       </c>
       <c r="F19">
         <v>20.49403190612793</v>
       </c>
-      <c r="G19" s="4">
+      <c r="G19">
         <v>15799729</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7">
       <c r="A20" s="2">
         <v>44960</v>
       </c>
@@ -874,22 +849,22 @@
         <v>20.70999908447266</v>
       </c>
       <c r="C20">
-        <v>20.860000610351559</v>
+        <v>20.86000061035156</v>
       </c>
       <c r="D20">
         <v>20.39999961853027</v>
       </c>
       <c r="E20">
-        <v>20.620000839233398</v>
+        <v>20.6200008392334</v>
       </c>
       <c r="F20">
-        <v>20.287420272827148</v>
-      </c>
-      <c r="G20" s="4">
+        <v>20.28742027282715</v>
+      </c>
+      <c r="G20">
         <v>11000481</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7">
       <c r="A21" s="2">
         <v>44963</v>
       </c>
@@ -897,7 +872,7 @@
         <v>20.54999923706055</v>
       </c>
       <c r="C21">
-        <v>20.610000610351559</v>
+        <v>20.61000061035156</v>
       </c>
       <c r="D21">
         <v>20.04000091552734</v>
@@ -908,22 +883,22 @@
       <c r="F21">
         <v>19.87419509887695</v>
       </c>
-      <c r="G21" s="4">
+      <c r="G21">
         <v>11932012</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7">
       <c r="A22" s="2">
         <v>44964</v>
       </c>
       <c r="B22">
-        <v>20.329999923706051</v>
+        <v>20.32999992370605</v>
       </c>
       <c r="C22">
-        <v>20.430000305175781</v>
+        <v>20.43000030517578</v>
       </c>
       <c r="D22">
-        <v>19.979999542236332</v>
+        <v>19.97999954223633</v>
       </c>
       <c r="E22">
         <v>20.10000038146973</v>
@@ -931,103 +906,103 @@
       <c r="F22">
         <v>19.77580642700195</v>
       </c>
-      <c r="G22" s="4">
+      <c r="G22">
         <v>10928602</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7">
       <c r="A23" s="2">
         <v>44965</v>
       </c>
       <c r="B23">
-        <v>20.090000152587891</v>
+        <v>20.09000015258789</v>
       </c>
       <c r="C23">
-        <v>20.159999847412109</v>
+        <v>20.15999984741211</v>
       </c>
       <c r="D23">
-        <v>19.930000305175781</v>
+        <v>19.93000030517578</v>
       </c>
       <c r="E23">
-        <v>19.979999542236332</v>
+        <v>19.97999954223633</v>
       </c>
       <c r="F23">
-        <v>19.657741546630859</v>
-      </c>
-      <c r="G23" s="4">
+        <v>19.65774154663086</v>
+      </c>
+      <c r="G23">
         <v>11512016</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7">
       <c r="A24" s="2">
         <v>44966</v>
       </c>
       <c r="B24">
-        <v>19.989999771118161</v>
+        <v>19.98999977111816</v>
       </c>
       <c r="C24">
         <v>20.20000076293945</v>
       </c>
       <c r="D24">
-        <v>19.979999542236332</v>
+        <v>19.97999954223633</v>
       </c>
       <c r="E24">
-        <v>20.069999694824219</v>
+        <v>20.06999969482422</v>
       </c>
       <c r="F24">
         <v>19.74629020690918</v>
       </c>
-      <c r="G24" s="4">
+      <c r="G24">
         <v>12017082</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7">
       <c r="A25" s="2">
         <v>44967</v>
       </c>
       <c r="B25">
-        <v>20.059999465942379</v>
+        <v>20.05999946594238</v>
       </c>
       <c r="C25">
-        <v>20.170000076293949</v>
+        <v>20.17000007629395</v>
       </c>
       <c r="D25">
         <v>20</v>
       </c>
       <c r="E25">
-        <v>20.079999923706051</v>
+        <v>20.07999992370605</v>
       </c>
       <c r="F25">
-        <v>19.756130218505859</v>
-      </c>
-      <c r="G25" s="4">
+        <v>19.75613021850586</v>
+      </c>
+      <c r="G25">
         <v>10313280</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7">
       <c r="A26" s="2">
         <v>44970</v>
       </c>
       <c r="B26">
-        <v>20.090000152587891</v>
+        <v>20.09000015258789</v>
       </c>
       <c r="C26">
         <v>20.14999961853027</v>
       </c>
       <c r="D26">
-        <v>19.659999847412109</v>
+        <v>19.65999984741211</v>
       </c>
       <c r="E26">
-        <v>19.979999542236332</v>
+        <v>19.97999954223633</v>
       </c>
       <c r="F26">
-        <v>19.657741546630859</v>
-      </c>
-      <c r="G26" s="4">
+        <v>19.65774154663086</v>
+      </c>
+      <c r="G26">
         <v>23486420</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7">
       <c r="A27" s="2">
         <v>44971</v>
       </c>
@@ -1035,45 +1010,45 @@
         <v>20</v>
       </c>
       <c r="C27">
-        <v>20.190000534057621</v>
+        <v>20.19000053405762</v>
       </c>
       <c r="D27">
         <v>19.89999961853027</v>
       </c>
       <c r="E27">
-        <v>19.989999771118161</v>
+        <v>19.98999977111816</v>
       </c>
       <c r="F27">
-        <v>19.667581558227539</v>
-      </c>
-      <c r="G27" s="4">
+        <v>19.66758155822754</v>
+      </c>
+      <c r="G27">
         <v>17337508</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7">
       <c r="A28" s="2">
         <v>44972</v>
       </c>
       <c r="B28">
-        <v>19.909999847412109</v>
+        <v>19.90999984741211</v>
       </c>
       <c r="C28">
         <v>19.95999908447266</v>
       </c>
       <c r="D28">
-        <v>18.579999923706051</v>
+        <v>18.57999992370605</v>
       </c>
       <c r="E28">
-        <v>18.829999923706051</v>
+        <v>18.82999992370605</v>
       </c>
       <c r="F28">
-        <v>18.526290893554691</v>
-      </c>
-      <c r="G28" s="4">
+        <v>18.52629089355469</v>
+      </c>
+      <c r="G28">
         <v>64956712</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7">
       <c r="A29" s="2">
         <v>44973</v>
       </c>
@@ -1081,22 +1056,22 @@
         <v>18.70000076293945</v>
       </c>
       <c r="C29">
-        <v>18.819999694824219</v>
+        <v>18.81999969482422</v>
       </c>
       <c r="D29">
-        <v>18.110000610351559</v>
+        <v>18.11000061035156</v>
       </c>
       <c r="E29">
-        <v>18.110000610351559</v>
+        <v>18.11000061035156</v>
       </c>
       <c r="F29">
-        <v>17.817903518676761</v>
-      </c>
-      <c r="G29" s="4">
+        <v>17.81790351867676</v>
+      </c>
+      <c r="G29">
         <v>51760228</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7">
       <c r="A30" s="2">
         <v>44974</v>
       </c>
@@ -1110,16 +1085,16 @@
         <v>17.5</v>
       </c>
       <c r="E30">
-        <v>17.590000152587891</v>
+        <v>17.59000015258789</v>
       </c>
       <c r="F30">
-        <v>17.306291580200199</v>
-      </c>
-      <c r="G30" s="4">
+        <v>17.3062915802002</v>
+      </c>
+      <c r="G30">
         <v>38676906</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7">
       <c r="A31" s="2">
         <v>44977</v>
       </c>
@@ -1127,22 +1102,22 @@
         <v>17.45000076293945</v>
       </c>
       <c r="C31">
-        <v>18.079999923706051</v>
+        <v>18.07999992370605</v>
       </c>
       <c r="D31">
-        <v>17.420000076293949</v>
+        <v>17.42000007629395</v>
       </c>
       <c r="E31">
-        <v>17.920000076293949</v>
+        <v>17.92000007629395</v>
       </c>
       <c r="F31">
         <v>17.63096809387207</v>
       </c>
-      <c r="G31" s="4">
+      <c r="G31">
         <v>38703632</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7">
       <c r="A32" s="2">
         <v>44978</v>
       </c>
@@ -1150,22 +1125,22 @@
         <v>18.10000038146973</v>
       </c>
       <c r="C32">
-        <v>18.479999542236332</v>
+        <v>18.47999954223633</v>
       </c>
       <c r="D32">
-        <v>18.069999694824219</v>
+        <v>18.06999969482422</v>
       </c>
       <c r="E32">
-        <v>18.239999771118161</v>
+        <v>18.23999977111816</v>
       </c>
       <c r="F32">
-        <v>17.945806503295898</v>
-      </c>
-      <c r="G32" s="4">
+        <v>17.9458065032959</v>
+      </c>
+      <c r="G32">
         <v>28089259</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7">
       <c r="A33" s="2">
         <v>44979</v>
       </c>
@@ -1173,30 +1148,30 @@
         <v>18.10000038146973</v>
       </c>
       <c r="C33">
-        <v>18.280000686645511</v>
+        <v>18.28000068664551</v>
       </c>
       <c r="D33">
-        <v>18.010000228881839</v>
+        <v>18.01000022888184</v>
       </c>
       <c r="E33">
         <v>18.14999961853027</v>
       </c>
       <c r="F33">
-        <v>17.857257843017582</v>
-      </c>
-      <c r="G33" s="4">
+        <v>17.85725784301758</v>
+      </c>
+      <c r="G33">
         <v>14546877</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7">
       <c r="A34" s="2">
         <v>44980</v>
       </c>
       <c r="B34">
-        <v>18.219999313354489</v>
+        <v>18.21999931335449</v>
       </c>
       <c r="C34">
-        <v>18.340000152587891</v>
+        <v>18.34000015258789</v>
       </c>
       <c r="D34">
         <v>18.14999961853027</v>
@@ -1205,13 +1180,13 @@
         <v>18.25</v>
       </c>
       <c r="F34">
-        <v>17.955644607543949</v>
-      </c>
-      <c r="G34" s="4">
+        <v>17.95564460754395</v>
+      </c>
+      <c r="G34">
         <v>12228127</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7">
       <c r="A35" s="2">
         <v>44981</v>
       </c>
@@ -1219,68 +1194,68 @@
         <v>18.25</v>
       </c>
       <c r="C35">
-        <v>18.360000610351559</v>
+        <v>18.36000061035156</v>
       </c>
       <c r="D35">
         <v>18.14999961853027</v>
       </c>
       <c r="E35">
-        <v>18.319999694824219</v>
+        <v>18.31999969482422</v>
       </c>
       <c r="F35">
-        <v>18.024517059326168</v>
-      </c>
-      <c r="G35" s="4">
+        <v>18.02451705932617</v>
+      </c>
+      <c r="G35">
         <v>16619025</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7">
       <c r="A36" s="2">
         <v>44984</v>
       </c>
       <c r="B36">
-        <v>18.319999694824219</v>
+        <v>18.31999969482422</v>
       </c>
       <c r="C36">
-        <v>18.590000152587891</v>
+        <v>18.59000015258789</v>
       </c>
       <c r="D36">
-        <v>18.229999542236332</v>
+        <v>18.22999954223633</v>
       </c>
       <c r="E36">
-        <v>18.520000457763668</v>
+        <v>18.52000045776367</v>
       </c>
       <c r="F36">
         <v>18.22129058837891</v>
       </c>
-      <c r="G36" s="4">
+      <c r="G36">
         <v>24954080</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7">
       <c r="A37" s="2">
         <v>44985</v>
       </c>
       <c r="B37">
-        <v>18.559999465942379</v>
+        <v>18.55999946594238</v>
       </c>
       <c r="C37">
-        <v>18.590000152587891</v>
+        <v>18.59000015258789</v>
       </c>
       <c r="D37">
-        <v>18.059999465942379</v>
+        <v>18.05999946594238</v>
       </c>
       <c r="E37">
         <v>18.14999961853027</v>
       </c>
       <c r="F37">
-        <v>17.857257843017582</v>
-      </c>
-      <c r="G37" s="4">
+        <v>17.85725784301758</v>
+      </c>
+      <c r="G37">
         <v>26006248</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7">
       <c r="A38" s="2">
         <v>44986</v>
       </c>
@@ -1288,7 +1263,7 @@
         <v>18.20000076293945</v>
       </c>
       <c r="C38">
-        <v>18.360000610351559</v>
+        <v>18.36000061035156</v>
       </c>
       <c r="D38">
         <v>18.14999961853027</v>
@@ -1297,36 +1272,36 @@
         <v>18.35000038146973</v>
       </c>
       <c r="F38">
-        <v>18.054033279418949</v>
-      </c>
-      <c r="G38" s="4">
+        <v>18.05403327941895</v>
+      </c>
+      <c r="G38">
         <v>19522881</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7">
       <c r="A39" s="2">
         <v>44987</v>
       </c>
       <c r="B39">
-        <v>18.280000686645511</v>
+        <v>18.28000068664551</v>
       </c>
       <c r="C39">
-        <v>18.340000152587891</v>
+        <v>18.34000015258789</v>
       </c>
       <c r="D39">
-        <v>17.920000076293949</v>
+        <v>17.92000007629395</v>
       </c>
       <c r="E39">
-        <v>17.989999771118161</v>
+        <v>17.98999977111816</v>
       </c>
       <c r="F39">
-        <v>17.699838638305661</v>
-      </c>
-      <c r="G39" s="4">
+        <v>17.69983863830566</v>
+      </c>
+      <c r="G39">
         <v>18133756</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7">
       <c r="A40" s="2">
         <v>44988</v>
       </c>
@@ -1337,19 +1312,19 @@
         <v>18.10000038146973</v>
       </c>
       <c r="D40">
-        <v>17.930000305175781</v>
+        <v>17.93000030517578</v>
       </c>
       <c r="E40">
-        <v>18.059999465942379</v>
+        <v>18.05999946594238</v>
       </c>
       <c r="F40">
-        <v>17.768709182739261</v>
-      </c>
-      <c r="G40" s="4">
+        <v>17.76870918273926</v>
+      </c>
+      <c r="G40">
         <v>14136311</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7">
       <c r="A41" s="2">
         <v>44991</v>
       </c>
@@ -1357,22 +1332,22 @@
         <v>18</v>
       </c>
       <c r="C41">
-        <v>18.190000534057621</v>
+        <v>18.19000053405762</v>
       </c>
       <c r="D41">
-        <v>17.979999542236332</v>
+        <v>17.97999954223633</v>
       </c>
       <c r="E41">
-        <v>17.989999771118161</v>
+        <v>17.98999977111816</v>
       </c>
       <c r="F41">
-        <v>17.699838638305661</v>
-      </c>
-      <c r="G41" s="4">
+        <v>17.69983863830566</v>
+      </c>
+      <c r="G41">
         <v>19383804</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7">
       <c r="A42" s="2">
         <v>44992</v>
       </c>
@@ -1380,27 +1355,27 @@
         <v>17.89999961853027</v>
       </c>
       <c r="C42">
-        <v>18.010000228881839</v>
+        <v>18.01000022888184</v>
       </c>
       <c r="D42">
-        <v>17.670000076293949</v>
+        <v>17.67000007629395</v>
       </c>
       <c r="E42">
         <v>17.70000076293945</v>
       </c>
       <c r="F42">
-        <v>17.414516448974609</v>
-      </c>
-      <c r="G42" s="4">
+        <v>17.41451644897461</v>
+      </c>
+      <c r="G42">
         <v>13811658</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7">
       <c r="A43" s="2">
         <v>44993</v>
       </c>
       <c r="B43">
-        <v>17.670000076293949</v>
+        <v>17.67000007629395</v>
       </c>
       <c r="C43">
         <v>17.70000076293945</v>
@@ -1409,27 +1384,27 @@
         <v>17.45000076293945</v>
       </c>
       <c r="E43">
-        <v>17.590000152587891</v>
+        <v>17.59000015258789</v>
       </c>
       <c r="F43">
-        <v>17.306291580200199</v>
-      </c>
-      <c r="G43" s="4">
+        <v>17.3062915802002</v>
+      </c>
+      <c r="G43">
         <v>10991050</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7">
       <c r="A44" s="2">
         <v>44994</v>
       </c>
       <c r="B44">
-        <v>17.579999923706051</v>
+        <v>17.57999992370605</v>
       </c>
       <c r="C44">
-        <v>17.920000076293949</v>
+        <v>17.92000007629395</v>
       </c>
       <c r="D44">
-        <v>17.559999465942379</v>
+        <v>17.55999946594238</v>
       </c>
       <c r="E44">
         <v>17.79999923706055</v>
@@ -1437,11 +1412,11 @@
       <c r="F44">
         <v>17.51290321350098</v>
       </c>
-      <c r="G44" s="4">
+      <c r="G44">
         <v>15429180</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7">
       <c r="A45" s="2">
         <v>44995</v>
       </c>
@@ -1449,22 +1424,22 @@
         <v>17.70000076293945</v>
       </c>
       <c r="C45">
-        <v>17.979999542236332</v>
+        <v>17.97999954223633</v>
       </c>
       <c r="D45">
         <v>17.60000038146973</v>
       </c>
       <c r="E45">
-        <v>17.629999160766602</v>
+        <v>17.6299991607666</v>
       </c>
       <c r="F45">
-        <v>17.345643997192379</v>
-      </c>
-      <c r="G45" s="4">
+        <v>17.34564399719238</v>
+      </c>
+      <c r="G45">
         <v>11239987</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7">
       <c r="A46" s="2">
         <v>44998</v>
       </c>
@@ -1475,19 +1450,19 @@
         <v>19.14999961853027</v>
       </c>
       <c r="D46">
-        <v>18.020000457763668</v>
+        <v>18.02000045776367</v>
       </c>
       <c r="E46">
-        <v>18.930000305175781</v>
+        <v>18.93000030517578</v>
       </c>
       <c r="F46">
-        <v>18.624677658081051</v>
-      </c>
-      <c r="G46" s="4">
+        <v>18.62467765808105</v>
+      </c>
+      <c r="G46">
         <v>65066072</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7">
       <c r="A47" s="2">
         <v>44999</v>
       </c>
@@ -1498,42 +1473,42 @@
         <v>18.95000076293945</v>
       </c>
       <c r="D47">
-        <v>18.360000610351559</v>
+        <v>18.36000061035156</v>
       </c>
       <c r="E47">
-        <v>18.569999694824219</v>
+        <v>18.56999969482422</v>
       </c>
       <c r="F47">
         <v>18.27048301696777</v>
       </c>
-      <c r="G47" s="4">
+      <c r="G47">
         <v>24992911</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7">
       <c r="A48" s="2">
         <v>45000</v>
       </c>
       <c r="B48">
-        <v>18.620000839233398</v>
+        <v>18.6200008392334</v>
       </c>
       <c r="C48">
-        <v>19.479999542236332</v>
+        <v>19.47999954223633</v>
       </c>
       <c r="D48">
-        <v>18.620000839233398</v>
+        <v>18.6200008392334</v>
       </c>
       <c r="E48">
         <v>18.95000076293945</v>
       </c>
       <c r="F48">
-        <v>18.644355773925781</v>
-      </c>
-      <c r="G48" s="4">
+        <v>18.64435577392578</v>
+      </c>
+      <c r="G48">
         <v>28293836</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7">
       <c r="A49" s="2">
         <v>45001</v>
       </c>
@@ -1541,7 +1516,7 @@
         <v>18.85000038146973</v>
       </c>
       <c r="C49">
-        <v>18.870000839233398</v>
+        <v>18.8700008392334</v>
       </c>
       <c r="D49">
         <v>18.45999908447266</v>
@@ -1552,11 +1527,11 @@
       <c r="F49">
         <v>18.30000114440918</v>
       </c>
-      <c r="G49" s="4">
+      <c r="G49">
         <v>16298131</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7">
       <c r="A50" s="2">
         <v>45002</v>
       </c>
@@ -1570,39 +1545,39 @@
         <v>18.5</v>
       </c>
       <c r="E50">
-        <v>18.659999847412109</v>
+        <v>18.65999984741211</v>
       </c>
       <c r="F50">
         <v>18.35903167724609</v>
       </c>
-      <c r="G50" s="4">
+      <c r="G50">
         <v>15084647</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7">
       <c r="A51" s="2">
         <v>45005</v>
       </c>
       <c r="B51">
-        <v>18.770000457763668</v>
+        <v>18.77000045776367</v>
       </c>
       <c r="C51">
         <v>19.04999923706055</v>
       </c>
       <c r="D51">
-        <v>18.340000152587891</v>
+        <v>18.34000015258789</v>
       </c>
       <c r="E51">
-        <v>18.530000686645511</v>
+        <v>18.53000068664551</v>
       </c>
       <c r="F51">
-        <v>18.231130599975589</v>
-      </c>
-      <c r="G51" s="4">
+        <v>18.23113059997559</v>
+      </c>
+      <c r="G51">
         <v>20302312</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7">
       <c r="A52" s="2">
         <v>45006</v>
       </c>
@@ -1616,16 +1591,16 @@
         <v>18.35000038146973</v>
       </c>
       <c r="E52">
-        <v>18.520000457763668</v>
+        <v>18.52000045776367</v>
       </c>
       <c r="F52">
         <v>18.22129058837891</v>
       </c>
-      <c r="G52" s="4">
+      <c r="G52">
         <v>15106945</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7">
       <c r="A53" s="2">
         <v>45007</v>
       </c>
@@ -1633,119 +1608,119 @@
         <v>18.54999923706055</v>
       </c>
       <c r="C53">
-        <v>18.639999389648441</v>
+        <v>18.63999938964844</v>
       </c>
       <c r="D53">
-        <v>18.360000610351559</v>
+        <v>18.36000061035156</v>
       </c>
       <c r="E53">
-        <v>18.420000076293949</v>
+        <v>18.42000007629395</v>
       </c>
       <c r="F53">
-        <v>18.122903823852539</v>
-      </c>
-      <c r="G53" s="4">
+        <v>18.12290382385254</v>
+      </c>
+      <c r="G53">
         <v>12092345</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7">
       <c r="A54" s="2">
         <v>45008</v>
       </c>
       <c r="B54">
-        <v>18.309999465942379</v>
+        <v>18.30999946594238</v>
       </c>
       <c r="C54">
         <v>18.35000038146973</v>
       </c>
       <c r="D54">
-        <v>18.079999923706051</v>
+        <v>18.07999992370605</v>
       </c>
       <c r="E54">
-        <v>18.219999313354489</v>
+        <v>18.21999931335449</v>
       </c>
       <c r="F54">
-        <v>17.926128387451168</v>
-      </c>
-      <c r="G54" s="4">
+        <v>17.92612838745117</v>
+      </c>
+      <c r="G54">
         <v>14189119</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7">
       <c r="A55" s="2">
         <v>45009</v>
       </c>
       <c r="B55">
-        <v>18.079999923706051</v>
+        <v>18.07999992370605</v>
       </c>
       <c r="C55">
-        <v>18.340000152587891</v>
+        <v>18.34000015258789</v>
       </c>
       <c r="D55">
-        <v>18.069999694824219</v>
+        <v>18.06999969482422</v>
       </c>
       <c r="E55">
-        <v>18.219999313354489</v>
+        <v>18.21999931335449</v>
       </c>
       <c r="F55">
-        <v>17.926128387451168</v>
-      </c>
-      <c r="G55" s="4">
+        <v>17.92612838745117</v>
+      </c>
+      <c r="G55">
         <v>10171124</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7">
       <c r="A56" s="2">
         <v>45012</v>
       </c>
       <c r="B56">
-        <v>18.270000457763668</v>
+        <v>18.27000045776367</v>
       </c>
       <c r="C56">
-        <v>18.319999694824219</v>
+        <v>18.31999969482422</v>
       </c>
       <c r="D56">
-        <v>17.729999542236332</v>
+        <v>17.72999954223633</v>
       </c>
       <c r="E56">
-        <v>17.989999771118161</v>
+        <v>17.98999977111816</v>
       </c>
       <c r="F56">
-        <v>17.699838638305661</v>
-      </c>
-      <c r="G56" s="4">
+        <v>17.69983863830566</v>
+      </c>
+      <c r="G56">
         <v>14519675</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7">
       <c r="A57" s="2">
         <v>45013</v>
       </c>
       <c r="B57">
-        <v>18.030000686645511</v>
+        <v>18.03000068664551</v>
       </c>
       <c r="C57">
-        <v>18.280000686645511</v>
+        <v>18.28000068664551</v>
       </c>
       <c r="D57">
         <v>17.95000076293945</v>
       </c>
       <c r="E57">
-        <v>18.030000686645511</v>
+        <v>18.03000068664551</v>
       </c>
       <c r="F57">
-        <v>17.739194869995121</v>
-      </c>
-      <c r="G57" s="4">
+        <v>17.73919486999512</v>
+      </c>
+      <c r="G57">
         <v>9788591</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7">
       <c r="A58" s="2">
         <v>45014</v>
       </c>
       <c r="B58">
-        <v>18.329999923706051</v>
+        <v>18.32999992370605</v>
       </c>
       <c r="C58">
         <v>18.60000038146973</v>
@@ -1757,13 +1732,13 @@
         <v>18.20000076293945</v>
       </c>
       <c r="F58">
-        <v>17.906452178955082</v>
-      </c>
-      <c r="G58" s="4">
+        <v>17.90645217895508</v>
+      </c>
+      <c r="G58">
         <v>14726684</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7">
       <c r="A59" s="2">
         <v>45015</v>
       </c>
@@ -1771,50 +1746,50 @@
         <v>18.20000076293945</v>
       </c>
       <c r="C59">
-        <v>18.260000228881839</v>
+        <v>18.26000022888184</v>
       </c>
       <c r="D59">
         <v>18</v>
       </c>
       <c r="E59">
-        <v>18.180000305175781</v>
+        <v>18.18000030517578</v>
       </c>
       <c r="F59">
-        <v>17.886774063110352</v>
-      </c>
-      <c r="G59" s="4">
+        <v>17.88677406311035</v>
+      </c>
+      <c r="G59">
         <v>6352282</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7">
       <c r="A60" s="2">
         <v>45016</v>
       </c>
       <c r="B60">
-        <v>18.190000534057621</v>
+        <v>18.19000053405762</v>
       </c>
       <c r="C60">
-        <v>18.479999542236332</v>
+        <v>18.47999954223633</v>
       </c>
       <c r="D60">
-        <v>18.110000610351559</v>
+        <v>18.11000061035156</v>
       </c>
       <c r="E60">
-        <v>18.319999694824219</v>
+        <v>18.31999969482422</v>
       </c>
       <c r="F60">
-        <v>18.024517059326168</v>
-      </c>
-      <c r="G60" s="4">
+        <v>18.02451705932617</v>
+      </c>
+      <c r="G60">
         <v>8222379</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7">
       <c r="A61" s="2">
         <v>45019</v>
       </c>
       <c r="B61">
-        <v>18.319999694824219</v>
+        <v>18.31999969482422</v>
       </c>
       <c r="C61">
         <v>18.64999961853027</v>
@@ -1823,16 +1798,16 @@
         <v>18.29999923706055</v>
       </c>
       <c r="E61">
-        <v>18.420000076293949</v>
+        <v>18.42000007629395</v>
       </c>
       <c r="F61">
-        <v>18.122903823852539</v>
-      </c>
-      <c r="G61" s="4">
+        <v>18.12290382385254</v>
+      </c>
+      <c r="G61">
         <v>13473156</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7">
       <c r="A62" s="2">
         <v>45020</v>
       </c>
@@ -1840,142 +1815,142 @@
         <v>18.5</v>
       </c>
       <c r="C62">
-        <v>18.680000305175781</v>
+        <v>18.68000030517578</v>
       </c>
       <c r="D62">
         <v>18.29999923706055</v>
       </c>
       <c r="E62">
-        <v>18.530000686645511</v>
+        <v>18.53000068664551</v>
       </c>
       <c r="F62">
-        <v>18.231130599975589</v>
-      </c>
-      <c r="G62" s="4">
+        <v>18.23113059997559</v>
+      </c>
+      <c r="G62">
         <v>16275317</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7">
       <c r="A63" s="2">
         <v>45022</v>
       </c>
       <c r="B63">
-        <v>18.530000686645511</v>
+        <v>18.53000068664551</v>
       </c>
       <c r="C63">
-        <v>18.579999923706051</v>
+        <v>18.57999992370605</v>
       </c>
       <c r="D63">
         <v>18.25</v>
       </c>
       <c r="E63">
-        <v>18.479999542236332</v>
+        <v>18.47999954223633</v>
       </c>
       <c r="F63">
-        <v>18.181936264038089</v>
-      </c>
-      <c r="G63" s="4">
+        <v>18.18193626403809</v>
+      </c>
+      <c r="G63">
         <v>11238737</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7">
       <c r="A64" s="2">
         <v>45023</v>
       </c>
       <c r="B64">
-        <v>18.489999771118161</v>
+        <v>18.48999977111816</v>
       </c>
       <c r="C64">
-        <v>19.059999465942379</v>
+        <v>19.05999946594238</v>
       </c>
       <c r="D64">
-        <v>18.409999847412109</v>
+        <v>18.40999984741211</v>
       </c>
       <c r="E64">
         <v>18.95000076293945</v>
       </c>
       <c r="F64">
-        <v>18.644355773925781</v>
-      </c>
-      <c r="G64" s="4">
+        <v>18.64435577392578</v>
+      </c>
+      <c r="G64">
         <v>19439468</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7">
       <c r="A65" s="2">
         <v>45026</v>
       </c>
       <c r="B65">
-        <v>18.930000305175781</v>
+        <v>18.93000030517578</v>
       </c>
       <c r="C65">
-        <v>19.370000839233398</v>
+        <v>19.3700008392334</v>
       </c>
       <c r="D65">
-        <v>18.930000305175781</v>
+        <v>18.93000030517578</v>
       </c>
       <c r="E65">
-        <v>19.069999694824219</v>
+        <v>19.06999969482422</v>
       </c>
       <c r="F65">
-        <v>18.762418746948239</v>
-      </c>
-      <c r="G65" s="4">
+        <v>18.76241874694824</v>
+      </c>
+      <c r="G65">
         <v>13473757</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7">
       <c r="A66" s="2">
         <v>45027</v>
       </c>
       <c r="B66">
-        <v>19.110000610351559</v>
+        <v>19.11000061035156</v>
       </c>
       <c r="C66">
-        <v>19.120000839233398</v>
+        <v>19.1200008392334</v>
       </c>
       <c r="D66">
         <v>18.89999961853027</v>
       </c>
       <c r="E66">
-        <v>18.989999771118161</v>
+        <v>18.98999977111816</v>
       </c>
       <c r="F66">
-        <v>18.683710098266602</v>
-      </c>
-      <c r="G66" s="4">
+        <v>18.6837100982666</v>
+      </c>
+      <c r="G66">
         <v>12279073</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7">
       <c r="A67" s="2">
         <v>45028</v>
       </c>
       <c r="B67">
-        <v>18.969999313354489</v>
+        <v>18.96999931335449</v>
       </c>
       <c r="C67">
         <v>19.04999923706055</v>
       </c>
       <c r="D67">
-        <v>18.440000534057621</v>
+        <v>18.44000053405762</v>
       </c>
       <c r="E67">
-        <v>18.559999465942379</v>
+        <v>18.55999946594238</v>
       </c>
       <c r="F67">
         <v>18.26064491271973</v>
       </c>
-      <c r="G67" s="4">
+      <c r="G67">
         <v>11901069</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7">
       <c r="A68" s="2">
         <v>45029</v>
       </c>
       <c r="B68">
-        <v>18.559999465942379</v>
+        <v>18.55999946594238</v>
       </c>
       <c r="C68">
         <v>18.64999961853027</v>
@@ -1984,16 +1959,16 @@
         <v>18.39999961853027</v>
       </c>
       <c r="E68">
-        <v>18.489999771118161</v>
+        <v>18.48999977111816</v>
       </c>
       <c r="F68">
-        <v>18.191774368286129</v>
-      </c>
-      <c r="G68" s="4">
+        <v>18.19177436828613</v>
+      </c>
+      <c r="G68">
         <v>7128672</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7">
       <c r="A69" s="2">
         <v>45030</v>
       </c>
@@ -2007,93 +1982,93 @@
         <v>18.20000076293945</v>
       </c>
       <c r="E69">
-        <v>18.340000152587891</v>
+        <v>18.34000015258789</v>
       </c>
       <c r="F69">
-        <v>18.044193267822269</v>
-      </c>
-      <c r="G69" s="4">
+        <v>18.04419326782227</v>
+      </c>
+      <c r="G69">
         <v>7673961</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7">
       <c r="A70" s="2">
         <v>45033</v>
       </c>
       <c r="B70">
-        <v>18.340000152587891</v>
+        <v>18.34000015258789</v>
       </c>
       <c r="C70">
-        <v>18.510000228881839</v>
+        <v>18.51000022888184</v>
       </c>
       <c r="D70">
-        <v>18.020000457763668</v>
+        <v>18.02000045776367</v>
       </c>
       <c r="E70">
-        <v>18.420000076293949</v>
+        <v>18.42000007629395</v>
       </c>
       <c r="F70">
-        <v>18.122903823852539</v>
-      </c>
-      <c r="G70" s="4">
+        <v>18.12290382385254</v>
+      </c>
+      <c r="G70">
         <v>16732342</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7">
       <c r="A71" s="2">
         <v>45034</v>
       </c>
       <c r="B71">
-        <v>18.430000305175781</v>
+        <v>18.43000030517578</v>
       </c>
       <c r="C71">
         <v>18.85000038146973</v>
       </c>
       <c r="D71">
-        <v>18.340000152587891</v>
+        <v>18.34000015258789</v>
       </c>
       <c r="E71">
         <v>18.75</v>
       </c>
       <c r="F71">
-        <v>18.447580337524411</v>
-      </c>
-      <c r="G71" s="4">
+        <v>18.44758033752441</v>
+      </c>
+      <c r="G71">
         <v>22027256</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7">
       <c r="A72" s="2">
         <v>45035</v>
       </c>
       <c r="B72">
-        <v>18.729999542236332</v>
+        <v>18.72999954223633</v>
       </c>
       <c r="C72">
-        <v>18.780000686645511</v>
+        <v>18.78000068664551</v>
       </c>
       <c r="D72">
-        <v>18.379999160766602</v>
+        <v>18.3799991607666</v>
       </c>
       <c r="E72">
-        <v>18.420000076293949</v>
+        <v>18.42000007629395</v>
       </c>
       <c r="F72">
-        <v>18.122903823852539</v>
-      </c>
-      <c r="G72" s="4">
+        <v>18.12290382385254</v>
+      </c>
+      <c r="G72">
         <v>13363748</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7">
       <c r="A73" s="2">
         <v>45036</v>
       </c>
       <c r="B73">
-        <v>18.479999542236332</v>
+        <v>18.47999954223633</v>
       </c>
       <c r="C73">
-        <v>18.489999771118161</v>
+        <v>18.48999977111816</v>
       </c>
       <c r="D73">
         <v>18</v>
@@ -2102,13 +2077,13 @@
         <v>18.04999923706055</v>
       </c>
       <c r="F73">
-        <v>17.758871078491211</v>
-      </c>
-      <c r="G73" s="4">
+        <v>17.75887107849121</v>
+      </c>
+      <c r="G73">
         <v>14098164</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7">
       <c r="A74" s="2">
         <v>45037</v>
       </c>
@@ -2119,7 +2094,7 @@
         <v>18.10000038146973</v>
       </c>
       <c r="D74">
-        <v>17.809999465942379</v>
+        <v>17.80999946594238</v>
       </c>
       <c r="E74">
         <v>17.95000076293945</v>
@@ -2127,65 +2102,65 @@
       <c r="F74">
         <v>17.66048431396484</v>
       </c>
-      <c r="G74" s="4">
+      <c r="G74">
         <v>13468403</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7">
       <c r="A75" s="2">
         <v>45040</v>
       </c>
       <c r="B75">
-        <v>17.940000534057621</v>
+        <v>17.94000053405762</v>
       </c>
       <c r="C75">
-        <v>17.979999542236332</v>
+        <v>17.97999954223633</v>
       </c>
       <c r="D75">
         <v>17.54999923706055</v>
       </c>
       <c r="E75">
-        <v>17.620000839233398</v>
+        <v>17.6200008392334</v>
       </c>
       <c r="F75">
-        <v>17.335807800292969</v>
-      </c>
-      <c r="G75" s="4">
+        <v>17.33580780029297</v>
+      </c>
+      <c r="G75">
         <v>11537300</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7">
       <c r="A76" s="2">
         <v>45041</v>
       </c>
       <c r="B76">
-        <v>17.620000839233398</v>
+        <v>17.6200008392334</v>
       </c>
       <c r="C76">
-        <v>17.809999465942379</v>
+        <v>17.80999946594238</v>
       </c>
       <c r="D76">
         <v>17.29999923706055</v>
       </c>
       <c r="E76">
-        <v>17.590000152587891</v>
+        <v>17.59000015258789</v>
       </c>
       <c r="F76">
-        <v>17.306291580200199</v>
-      </c>
-      <c r="G76" s="4">
+        <v>17.3062915802002</v>
+      </c>
+      <c r="G76">
         <v>14472482</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7">
       <c r="A77" s="2">
         <v>45042</v>
       </c>
       <c r="B77">
-        <v>17.389999389648441</v>
+        <v>17.38999938964844</v>
       </c>
       <c r="C77">
-        <v>17.420000076293949</v>
+        <v>17.42000007629395</v>
       </c>
       <c r="D77">
         <v>17</v>
@@ -2194,128 +2169,128 @@
         <v>17.25</v>
       </c>
       <c r="F77">
-        <v>16.971775054931641</v>
-      </c>
-      <c r="G77" s="4">
+        <v>16.97177505493164</v>
+      </c>
+      <c r="G77">
         <v>29809726</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7">
       <c r="A78" s="2">
         <v>45043</v>
       </c>
       <c r="B78">
-        <v>17.270000457763668</v>
+        <v>17.27000045776367</v>
       </c>
       <c r="C78">
         <v>17.54999923706055</v>
       </c>
       <c r="D78">
-        <v>17.239999771118161</v>
+        <v>17.23999977111816</v>
       </c>
       <c r="E78">
-        <v>17.389999389648441</v>
+        <v>17.38999938964844</v>
       </c>
       <c r="F78">
-        <v>17.109516143798832</v>
-      </c>
-      <c r="G78" s="4">
+        <v>17.10951614379883</v>
+      </c>
+      <c r="G78">
         <v>21672511</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7">
       <c r="A79" s="2">
         <v>45044</v>
       </c>
       <c r="B79">
-        <v>17.389999389648441</v>
+        <v>17.38999938964844</v>
       </c>
       <c r="C79">
-        <v>17.479999542236332</v>
+        <v>17.47999954223633</v>
       </c>
       <c r="D79">
-        <v>17.180000305175781</v>
+        <v>17.18000030517578</v>
       </c>
       <c r="E79">
         <v>17.29999923706055</v>
       </c>
       <c r="F79">
-        <v>17.020967483520511</v>
-      </c>
-      <c r="G79" s="4">
+        <v>17.02096748352051</v>
+      </c>
+      <c r="G79">
         <v>13381347</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7">
       <c r="A80" s="2">
         <v>45050</v>
       </c>
       <c r="B80">
-        <v>17.239999771118161</v>
+        <v>17.23999977111816</v>
       </c>
       <c r="C80">
-        <v>17.239999771118161</v>
+        <v>17.23999977111816</v>
       </c>
       <c r="D80">
-        <v>16.989999771118161</v>
+        <v>16.98999977111816</v>
       </c>
       <c r="E80">
         <v>17.14999961853027</v>
       </c>
       <c r="F80">
-        <v>16.873386383056641</v>
-      </c>
-      <c r="G80" s="4">
+        <v>16.87338638305664</v>
+      </c>
+      <c r="G80">
         <v>16387742</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7">
       <c r="A81" s="2">
         <v>45051</v>
       </c>
       <c r="B81">
-        <v>17.190000534057621</v>
+        <v>17.19000053405762</v>
       </c>
       <c r="C81">
         <v>17.20000076293945</v>
       </c>
       <c r="D81">
-        <v>16.690000534057621</v>
+        <v>16.69000053405762</v>
       </c>
       <c r="E81">
-        <v>16.989999771118161</v>
+        <v>16.98999977111816</v>
       </c>
       <c r="F81">
         <v>16.71596717834473</v>
       </c>
-      <c r="G81" s="4">
+      <c r="G81">
         <v>17828752</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7">
       <c r="A82" s="2">
         <v>45054</v>
       </c>
       <c r="B82">
-        <v>16.979999542236332</v>
+        <v>16.97999954223633</v>
       </c>
       <c r="C82">
-        <v>17.170000076293949</v>
+        <v>17.17000007629395</v>
       </c>
       <c r="D82">
         <v>16.70000076293945</v>
       </c>
       <c r="E82">
-        <v>16.739999771118161</v>
+        <v>16.73999977111816</v>
       </c>
       <c r="F82">
-        <v>16.469999313354489</v>
-      </c>
-      <c r="G82" s="4">
+        <v>16.46999931335449</v>
+      </c>
+      <c r="G82">
         <v>19735407</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7">
       <c r="A83" s="2">
         <v>45055</v>
       </c>
@@ -2323,45 +2298,45 @@
         <v>16.70000076293945</v>
       </c>
       <c r="C83">
-        <v>16.770000457763668</v>
+        <v>16.77000045776367</v>
       </c>
       <c r="D83">
-        <v>16.469999313354489</v>
+        <v>16.46999931335449</v>
       </c>
       <c r="E83">
-        <v>16.469999313354489</v>
+        <v>16.46999931335449</v>
       </c>
       <c r="F83">
-        <v>16.204355239868161</v>
-      </c>
-      <c r="G83" s="4">
+        <v>16.20435523986816</v>
+      </c>
+      <c r="G83">
         <v>15276764</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7">
       <c r="A84" s="2">
         <v>45056</v>
       </c>
       <c r="B84">
-        <v>16.469999313354489</v>
+        <v>16.46999931335449</v>
       </c>
       <c r="C84">
-        <v>16.739999771118161</v>
+        <v>16.73999977111816</v>
       </c>
       <c r="D84">
         <v>16.39999961853027</v>
       </c>
       <c r="E84">
-        <v>16.520000457763668</v>
+        <v>16.52000045776367</v>
       </c>
       <c r="F84">
-        <v>16.253549575805661</v>
-      </c>
-      <c r="G84" s="4">
+        <v>16.25354957580566</v>
+      </c>
+      <c r="G84">
         <v>12848116</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7">
       <c r="A85" s="2">
         <v>45057</v>
       </c>
@@ -2369,10 +2344,10 @@
         <v>16.54999923706055</v>
       </c>
       <c r="C85">
-        <v>16.559999465942379</v>
+        <v>16.55999946594238</v>
       </c>
       <c r="D85">
-        <v>16.280000686645511</v>
+        <v>16.28000068664551</v>
       </c>
       <c r="E85">
         <v>16.29999923706055</v>
@@ -2380,57 +2355,57 @@
       <c r="F85">
         <v>16.03709602355957</v>
       </c>
-      <c r="G85" s="4">
+      <c r="G85">
         <v>11503469</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7">
       <c r="A86" s="2">
         <v>45058</v>
       </c>
       <c r="B86">
-        <v>16.280000686645511</v>
+        <v>16.28000068664551</v>
       </c>
       <c r="C86">
-        <v>16.440000534057621</v>
+        <v>16.44000053405762</v>
       </c>
       <c r="D86">
-        <v>15.920000076293951</v>
+        <v>15.92000007629395</v>
       </c>
       <c r="E86">
-        <v>16.079999923706051</v>
+        <v>16.07999992370605</v>
       </c>
       <c r="F86">
-        <v>15.820645332336429</v>
-      </c>
-      <c r="G86" s="4">
+        <v>15.82064533233643</v>
+      </c>
+      <c r="G86">
         <v>21662995</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7">
       <c r="A87" s="2">
         <v>45061</v>
       </c>
       <c r="B87">
-        <v>16.020000457763668</v>
+        <v>16.02000045776367</v>
       </c>
       <c r="C87">
-        <v>16.329999923706051</v>
+        <v>16.32999992370605</v>
       </c>
       <c r="D87">
         <v>15.80000019073486</v>
       </c>
       <c r="E87">
-        <v>16.280000686645511</v>
+        <v>16.28000068664551</v>
       </c>
       <c r="F87">
         <v>16.01741981506348</v>
       </c>
-      <c r="G87" s="4">
+      <c r="G87">
         <v>24151116</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7">
       <c r="A88" s="2">
         <v>45062</v>
       </c>
@@ -2441,70 +2416,70 @@
         <v>16.29000091552734</v>
       </c>
       <c r="D88">
-        <v>16.020000457763668</v>
+        <v>16.02000045776367</v>
       </c>
       <c r="E88">
-        <v>16.079999923706051</v>
+        <v>16.07999992370605</v>
       </c>
       <c r="F88">
-        <v>15.820645332336429</v>
-      </c>
-      <c r="G88" s="4">
+        <v>15.82064533233643</v>
+      </c>
+      <c r="G88">
         <v>15016516</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7">
       <c r="A89" s="2">
         <v>45063</v>
       </c>
       <c r="B89">
-        <v>16.020000457763668</v>
+        <v>16.02000045776367</v>
       </c>
       <c r="C89">
-        <v>16.069999694824219</v>
+        <v>16.06999969482422</v>
       </c>
       <c r="D89">
-        <v>15.930000305175779</v>
+        <v>15.93000030517578</v>
       </c>
       <c r="E89">
         <v>15.97000026702881</v>
       </c>
       <c r="F89">
-        <v>15.712419509887701</v>
-      </c>
-      <c r="G89" s="4">
+        <v>15.7124195098877</v>
+      </c>
+      <c r="G89">
         <v>10207116</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7">
       <c r="A90" s="2">
         <v>45064</v>
       </c>
       <c r="B90">
-        <v>15.960000038146971</v>
+        <v>15.96000003814697</v>
       </c>
       <c r="C90">
-        <v>16.020000457763668</v>
+        <v>16.02000045776367</v>
       </c>
       <c r="D90">
-        <v>15.560000419616699</v>
+        <v>15.5600004196167</v>
       </c>
       <c r="E90">
         <v>15.69999980926514</v>
       </c>
       <c r="F90">
-        <v>15.446774482727051</v>
-      </c>
-      <c r="G90" s="4">
+        <v>15.44677448272705</v>
+      </c>
+      <c r="G90">
         <v>20430709</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7">
       <c r="A91" s="2">
         <v>45065</v>
       </c>
       <c r="B91">
-        <v>15.819999694824221</v>
+        <v>15.81999969482422</v>
       </c>
       <c r="C91">
         <v>16.45999908447266</v>
@@ -2518,85 +2493,85 @@
       <c r="F91">
         <v>16.02725982666016</v>
       </c>
-      <c r="G91" s="4">
+      <c r="G91">
         <v>29680510</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7">
       <c r="A92" s="2">
         <v>45068</v>
       </c>
       <c r="B92">
-        <v>16.319999694824219</v>
+        <v>16.31999969482422</v>
       </c>
       <c r="C92">
-        <v>16.569999694824219</v>
+        <v>16.56999969482422</v>
       </c>
       <c r="D92">
-        <v>16.219999313354489</v>
+        <v>16.21999931335449</v>
       </c>
       <c r="E92">
-        <v>16.370000839233398</v>
+        <v>16.3700008392334</v>
       </c>
       <c r="F92">
         <v>16.1059684753418</v>
       </c>
-      <c r="G92" s="4">
+      <c r="G92">
         <v>15770099</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7">
       <c r="A93" s="2">
         <v>45069</v>
       </c>
       <c r="B93">
-        <v>16.280000686645511</v>
+        <v>16.28000068664551</v>
       </c>
       <c r="C93">
-        <v>16.389999389648441</v>
+        <v>16.38999938964844</v>
       </c>
       <c r="D93">
         <v>16.10000038146973</v>
       </c>
       <c r="E93">
-        <v>16.219999313354489</v>
+        <v>16.21999931335449</v>
       </c>
       <c r="F93">
         <v>15.95838642120361</v>
       </c>
-      <c r="G93" s="4">
+      <c r="G93">
         <v>17988776</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7">
       <c r="A94" s="2">
         <v>45070</v>
       </c>
       <c r="B94">
-        <v>16.120000839233398</v>
+        <v>16.1200008392334</v>
       </c>
       <c r="C94">
-        <v>16.260000228881839</v>
+        <v>16.26000022888184</v>
       </c>
       <c r="D94">
-        <v>16.010000228881839</v>
+        <v>16.01000022888184</v>
       </c>
       <c r="E94">
-        <v>16.159999847412109</v>
+        <v>16.15999984741211</v>
       </c>
       <c r="F94">
-        <v>15.899354934692379</v>
-      </c>
-      <c r="G94" s="4">
+        <v>15.89935493469238</v>
+      </c>
+      <c r="G94">
         <v>9693418</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7">
       <c r="A95" s="2">
         <v>45071</v>
       </c>
       <c r="B95">
-        <v>16.090000152587891</v>
+        <v>16.09000015258789</v>
       </c>
       <c r="C95">
         <v>16.14999961853027</v>
@@ -2605,16 +2580,16 @@
         <v>15.80000019073486</v>
       </c>
       <c r="E95">
-        <v>15.939999580383301</v>
+        <v>15.9399995803833</v>
       </c>
       <c r="F95">
         <v>15.68290328979492</v>
       </c>
-      <c r="G95" s="4">
+      <c r="G95">
         <v>9964553</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7">
       <c r="A96" s="2">
         <v>45072</v>
       </c>
@@ -2622,45 +2597,45 @@
         <v>15.94999980926514</v>
       </c>
       <c r="C96">
-        <v>16.110000610351559</v>
+        <v>16.11000061035156</v>
       </c>
       <c r="D96">
-        <v>15.710000038146971</v>
+        <v>15.71000003814697</v>
       </c>
       <c r="E96">
-        <v>16.069999694824219</v>
+        <v>16.06999969482422</v>
       </c>
       <c r="F96">
-        <v>15.810806274414061</v>
-      </c>
-      <c r="G96" s="4">
+        <v>15.81080627441406</v>
+      </c>
+      <c r="G96">
         <v>7303315</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7">
       <c r="A97" s="2">
         <v>45075</v>
       </c>
       <c r="B97">
-        <v>16.069999694824219</v>
+        <v>16.06999969482422</v>
       </c>
       <c r="C97">
-        <v>16.120000839233398</v>
+        <v>16.1200008392334</v>
       </c>
       <c r="D97">
         <v>15.85999965667725</v>
       </c>
       <c r="E97">
-        <v>16.079999923706051</v>
+        <v>16.07999992370605</v>
       </c>
       <c r="F97">
-        <v>15.820645332336429</v>
-      </c>
-      <c r="G97" s="4">
+        <v>15.82064533233643</v>
+      </c>
+      <c r="G97">
         <v>8411200</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7">
       <c r="A98" s="2">
         <v>45076</v>
       </c>
@@ -2671,19 +2646,19 @@
         <v>16.04000091552734</v>
       </c>
       <c r="D98">
-        <v>15.710000038146971</v>
+        <v>15.71000003814697</v>
       </c>
       <c r="E98">
-        <v>15.819999694824221</v>
+        <v>15.81999969482422</v>
       </c>
       <c r="F98">
         <v>15.56483840942383</v>
       </c>
-      <c r="G98" s="4">
+      <c r="G98">
         <v>11037409</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7">
       <c r="A99" s="2">
         <v>45077</v>
       </c>
@@ -2691,7 +2666,7 @@
         <v>15.72000026702881</v>
       </c>
       <c r="C99">
-        <v>15.810000419616699</v>
+        <v>15.8100004196167</v>
       </c>
       <c r="D99">
         <v>15.25</v>
@@ -2700,13 +2675,13 @@
         <v>15.39000034332275</v>
       </c>
       <c r="F99">
-        <v>15.141775131225589</v>
-      </c>
-      <c r="G99" s="4">
+        <v>15.14177513122559</v>
+      </c>
+      <c r="G99">
         <v>14813755</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7">
       <c r="A100" s="2">
         <v>45078</v>
       </c>
@@ -2720,16 +2695,16 @@
         <v>15.39999961853027</v>
       </c>
       <c r="E100">
-        <v>15.680000305175779</v>
+        <v>15.68000030517578</v>
       </c>
       <c r="F100">
-        <v>15.427097320556641</v>
-      </c>
-      <c r="G100" s="4">
+        <v>15.42709732055664</v>
+      </c>
+      <c r="G100">
         <v>10194933</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7">
       <c r="A101" s="2">
         <v>45079</v>
       </c>
@@ -2737,30 +2712,30 @@
         <v>15.77999973297119</v>
       </c>
       <c r="C101">
-        <v>15.930000305175779</v>
+        <v>15.93000030517578</v>
       </c>
       <c r="D101">
-        <v>15.710000038146971</v>
+        <v>15.71000003814697</v>
       </c>
       <c r="E101">
-        <v>15.829999923706049</v>
+        <v>15.82999992370605</v>
       </c>
       <c r="F101">
         <v>15.57467746734619</v>
       </c>
-      <c r="G101" s="4">
+      <c r="G101">
         <v>7932748</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7">
       <c r="A102" s="2">
         <v>45082</v>
       </c>
       <c r="B102">
-        <v>15.760000228881839</v>
+        <v>15.76000022888184</v>
       </c>
       <c r="C102">
-        <v>15.829999923706049</v>
+        <v>15.82999992370605</v>
       </c>
       <c r="D102">
         <v>15.39000034332275</v>
@@ -2771,11 +2746,11 @@
       <c r="F102">
         <v>15.25</v>
       </c>
-      <c r="G102" s="4">
+      <c r="G102">
         <v>10241266</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7">
       <c r="A103" s="2">
         <v>45083</v>
       </c>
@@ -2783,7 +2758,7 @@
         <v>15.38000011444092</v>
       </c>
       <c r="C103">
-        <v>15.439999580383301</v>
+        <v>15.4399995803833</v>
       </c>
       <c r="D103">
         <v>15.14999961853027</v>
@@ -2794,11 +2769,11 @@
       <c r="F103">
         <v>15.14999961853027</v>
       </c>
-      <c r="G103" s="4">
+      <c r="G103">
         <v>9860061</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7">
       <c r="A104" s="2">
         <v>45084</v>
       </c>
@@ -2809,19 +2784,19 @@
         <v>15.35000038146973</v>
       </c>
       <c r="D104">
-        <v>14.909999847412109</v>
+        <v>14.90999984741211</v>
       </c>
       <c r="E104">
-        <v>15.069999694824221</v>
+        <v>15.06999969482422</v>
       </c>
       <c r="F104">
-        <v>15.069999694824221</v>
-      </c>
-      <c r="G104" s="4">
+        <v>15.06999969482422</v>
+      </c>
+      <c r="G104">
         <v>15770005</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7">
       <c r="A105" s="2">
         <v>45085</v>
       </c>
@@ -2832,7 +2807,7 @@
         <v>15.22000026702881</v>
       </c>
       <c r="D105">
-        <v>14.920000076293951</v>
+        <v>14.92000007629395</v>
       </c>
       <c r="E105">
         <v>15.05000019073486</v>
@@ -2840,11 +2815,11 @@
       <c r="F105">
         <v>15.05000019073486</v>
       </c>
-      <c r="G105" s="4">
+      <c r="G105">
         <v>7391737</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7">
       <c r="A106" s="2">
         <v>45086</v>
       </c>
@@ -2863,11 +2838,11 @@
       <c r="F106">
         <v>14.94999980926514</v>
       </c>
-      <c r="G106" s="4">
+      <c r="G106">
         <v>7140171</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7">
       <c r="A107" s="2">
         <v>45089</v>
       </c>
@@ -2878,7 +2853,7 @@
         <v>15.22000026702881</v>
       </c>
       <c r="D107">
-        <v>14.689999580383301</v>
+        <v>14.6899995803833</v>
       </c>
       <c r="E107">
         <v>15.14999961853027</v>
@@ -2886,19 +2861,19 @@
       <c r="F107">
         <v>15.14999961853027</v>
       </c>
-      <c r="G107" s="4">
+      <c r="G107">
         <v>10658503</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7">
       <c r="A108" s="2">
         <v>45090</v>
       </c>
       <c r="B108">
-        <v>15.090000152587891</v>
+        <v>15.09000015258789</v>
       </c>
       <c r="C108">
-        <v>15.210000038146971</v>
+        <v>15.21000003814697</v>
       </c>
       <c r="D108">
         <v>14.94999980926514</v>
@@ -2909,11 +2884,11 @@
       <c r="F108">
         <v>15.10999965667725</v>
       </c>
-      <c r="G108" s="4">
+      <c r="G108">
         <v>6728020</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7">
       <c r="A109" s="2">
         <v>45091</v>
       </c>
@@ -2932,11 +2907,11 @@
       <c r="F109">
         <v>15.27000045776367</v>
       </c>
-      <c r="G109" s="4">
+      <c r="G109">
         <v>9632132</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7">
       <c r="A110" s="2">
         <v>45092</v>
       </c>
@@ -2947,7 +2922,7 @@
         <v>15.5</v>
       </c>
       <c r="D110">
-        <v>15.069999694824221</v>
+        <v>15.06999969482422</v>
       </c>
       <c r="E110">
         <v>15.47000026702881</v>
@@ -2955,11 +2930,11 @@
       <c r="F110">
         <v>15.47000026702881</v>
       </c>
-      <c r="G110" s="4">
+      <c r="G110">
         <v>14265949</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7">
       <c r="A111" s="2">
         <v>45093</v>
       </c>
@@ -2973,16 +2948,16 @@
         <v>15.14000034332275</v>
       </c>
       <c r="E111">
-        <v>15.170000076293951</v>
+        <v>15.17000007629395</v>
       </c>
       <c r="F111">
-        <v>15.170000076293951</v>
-      </c>
-      <c r="G111" s="4">
+        <v>15.17000007629395</v>
+      </c>
+      <c r="G111">
         <v>16942880</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7">
       <c r="A112" s="2">
         <v>45096</v>
       </c>
@@ -2990,7 +2965,7 @@
         <v>15.11999988555908</v>
       </c>
       <c r="C112">
-        <v>15.159999847412109</v>
+        <v>15.15999984741211</v>
       </c>
       <c r="D112">
         <v>14.64000034332275</v>
@@ -3001,16 +2976,16 @@
       <c r="F112">
         <v>14.72999954223633</v>
       </c>
-      <c r="G112" s="4">
+      <c r="G112">
         <v>25684268</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7">
       <c r="A113" s="2">
         <v>45097</v>
       </c>
       <c r="B113">
-        <v>14.659999847412109</v>
+        <v>14.65999984741211</v>
       </c>
       <c r="C113">
         <v>14.72999954223633</v>
@@ -3024,11 +2999,11 @@
       <c r="F113">
         <v>14.5</v>
       </c>
-      <c r="G113" s="4">
+      <c r="G113">
         <v>14369701</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7">
       <c r="A114" s="2">
         <v>45098</v>
       </c>
@@ -3036,22 +3011,22 @@
         <v>14.69999980926514</v>
       </c>
       <c r="C114">
-        <v>14.930000305175779</v>
+        <v>14.93000030517578</v>
       </c>
       <c r="D114">
-        <v>14.420000076293951</v>
+        <v>14.42000007629395</v>
       </c>
       <c r="E114">
-        <v>14.430000305175779</v>
+        <v>14.43000030517578</v>
       </c>
       <c r="F114">
-        <v>14.430000305175779</v>
-      </c>
-      <c r="G114" s="4">
+        <v>14.43000030517578</v>
+      </c>
+      <c r="G114">
         <v>17743554</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7">
       <c r="A115" s="2">
         <v>45103</v>
       </c>
@@ -3070,11 +3045,11 @@
       <c r="F115">
         <v>14.30000019073486</v>
       </c>
-      <c r="G115" s="4">
+      <c r="G115">
         <v>9591356</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7">
       <c r="A116" s="2">
         <v>45104</v>
       </c>
@@ -3093,11 +3068,11 @@
       <c r="F116">
         <v>14.47000026702881</v>
       </c>
-      <c r="G116" s="4">
+      <c r="G116">
         <v>10774459</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7">
       <c r="A117" s="2">
         <v>45105</v>
       </c>
@@ -3116,11 +3091,11 @@
       <c r="F117">
         <v>15.19999980926514</v>
       </c>
-      <c r="G117" s="4">
+      <c r="G117">
         <v>37679673</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7">
       <c r="A118" s="2">
         <v>45106</v>
       </c>
@@ -3134,21 +3109,21 @@
         <v>14.39999961853027</v>
       </c>
       <c r="E118">
-        <v>14.560000419616699</v>
+        <v>14.5600004196167</v>
       </c>
       <c r="F118">
-        <v>14.560000419616699</v>
-      </c>
-      <c r="G118" s="4">
+        <v>14.5600004196167</v>
+      </c>
+      <c r="G118">
         <v>30410300</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7">
       <c r="A119" s="2">
         <v>45107</v>
       </c>
       <c r="B119">
-        <v>14.420000076293951</v>
+        <v>14.42000007629395</v>
       </c>
       <c r="C119">
         <v>14.72000026702881</v>
@@ -3157,16 +3132,16 @@
         <v>14.39000034332275</v>
       </c>
       <c r="E119">
-        <v>14.560000419616699</v>
+        <v>14.5600004196167</v>
       </c>
       <c r="F119">
-        <v>14.560000419616699</v>
-      </c>
-      <c r="G119" s="4">
+        <v>14.5600004196167</v>
+      </c>
+      <c r="G119">
         <v>15123245</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7">
       <c r="A120" s="2">
         <v>45110</v>
       </c>
@@ -3177,19 +3152,19 @@
         <v>15</v>
       </c>
       <c r="D120">
-        <v>14.489999771118161</v>
+        <v>14.48999977111816</v>
       </c>
       <c r="E120">
-        <v>14.960000038146971</v>
+        <v>14.96000003814697</v>
       </c>
       <c r="F120">
-        <v>14.960000038146971</v>
-      </c>
-      <c r="G120" s="4">
+        <v>14.96000003814697</v>
+      </c>
+      <c r="G120">
         <v>15929282</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7">
       <c r="A121" s="2">
         <v>45111</v>
       </c>
@@ -3197,33 +3172,33 @@
         <v>14.85999965667725</v>
       </c>
       <c r="C121">
-        <v>15.010000228881839</v>
+        <v>15.01000022888184</v>
       </c>
       <c r="D121">
         <v>14.72999954223633</v>
       </c>
       <c r="E121">
-        <v>14.909999847412109</v>
+        <v>14.90999984741211</v>
       </c>
       <c r="F121">
-        <v>14.909999847412109</v>
-      </c>
-      <c r="G121" s="4">
+        <v>14.90999984741211</v>
+      </c>
+      <c r="G121">
         <v>10649616</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7">
       <c r="A122" s="2">
         <v>45112</v>
       </c>
       <c r="B122">
-        <v>14.930000305175779</v>
+        <v>14.93000030517578</v>
       </c>
       <c r="C122">
-        <v>15.439999580383301</v>
+        <v>15.4399995803833</v>
       </c>
       <c r="D122">
-        <v>14.840000152587891</v>
+        <v>14.84000015258789</v>
       </c>
       <c r="E122">
         <v>15.22999954223633</v>
@@ -3231,11 +3206,11 @@
       <c r="F122">
         <v>15.22999954223633</v>
       </c>
-      <c r="G122" s="4">
+      <c r="G122">
         <v>16768011</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7">
       <c r="A123" s="2">
         <v>45113</v>
       </c>
@@ -3246,27 +3221,27 @@
         <v>15.27999973297119</v>
       </c>
       <c r="D123">
-        <v>14.819999694824221</v>
+        <v>14.81999969482422</v>
       </c>
       <c r="E123">
-        <v>14.960000038146971</v>
+        <v>14.96000003814697</v>
       </c>
       <c r="F123">
-        <v>14.960000038146971</v>
-      </c>
-      <c r="G123" s="4">
+        <v>14.96000003814697</v>
+      </c>
+      <c r="G123">
         <v>10348517</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7">
       <c r="A124" s="2">
         <v>45114</v>
       </c>
       <c r="B124">
-        <v>14.930000305175779</v>
+        <v>14.93000030517578</v>
       </c>
       <c r="C124">
-        <v>15.159999847412109</v>
+        <v>15.15999984741211</v>
       </c>
       <c r="D124">
         <v>14.80000019073486</v>
@@ -3277,11 +3252,11 @@
       <c r="F124">
         <v>15.02999973297119</v>
       </c>
-      <c r="G124" s="4">
+      <c r="G124">
         <v>6164159</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7">
       <c r="A125" s="2">
         <v>45117</v>
       </c>
@@ -3289,10 +3264,10 @@
         <v>15.05000019073486</v>
       </c>
       <c r="C125">
-        <v>15.510000228881839</v>
+        <v>15.51000022888184</v>
       </c>
       <c r="D125">
-        <v>14.930000305175779</v>
+        <v>14.93000030517578</v>
       </c>
       <c r="E125">
         <v>15.39000034332275</v>
@@ -3300,11 +3275,11 @@
       <c r="F125">
         <v>15.39000034332275</v>
       </c>
-      <c r="G125" s="4">
+      <c r="G125">
         <v>14441149</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7">
       <c r="A126" s="2">
         <v>45118</v>
       </c>
@@ -3312,10 +3287,10 @@
         <v>15.39000034332275</v>
       </c>
       <c r="C126">
-        <v>15.489999771118161</v>
+        <v>15.48999977111816</v>
       </c>
       <c r="D126">
-        <v>15.170000076293951</v>
+        <v>15.17000007629395</v>
       </c>
       <c r="E126">
         <v>15.38000011444092</v>
@@ -3323,11 +3298,11 @@
       <c r="F126">
         <v>15.38000011444092</v>
       </c>
-      <c r="G126" s="4">
+      <c r="G126">
         <v>7370323</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7">
       <c r="A127" s="2">
         <v>45119</v>
       </c>
@@ -3341,27 +3316,27 @@
         <v>15.22000026702881</v>
       </c>
       <c r="E127">
-        <v>15.260000228881839</v>
+        <v>15.26000022888184</v>
       </c>
       <c r="F127">
-        <v>15.260000228881839</v>
-      </c>
-      <c r="G127" s="4">
+        <v>15.26000022888184</v>
+      </c>
+      <c r="G127">
         <v>5457236</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7">
       <c r="A128" s="2">
         <v>45120</v>
       </c>
       <c r="B128">
-        <v>15.260000228881839</v>
+        <v>15.26000022888184</v>
       </c>
       <c r="C128">
         <v>15.69999980926514</v>
       </c>
       <c r="D128">
-        <v>15.260000228881839</v>
+        <v>15.26000022888184</v>
       </c>
       <c r="E128">
         <v>15.60999965667725</v>
@@ -3369,11 +3344,11 @@
       <c r="F128">
         <v>15.60999965667725</v>
       </c>
-      <c r="G128" s="4">
+      <c r="G128">
         <v>13484135</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7">
       <c r="A129" s="2">
         <v>45121</v>
       </c>
@@ -3392,11 +3367,11 @@
       <c r="F129">
         <v>15.5</v>
       </c>
-      <c r="G129" s="4">
+      <c r="G129">
         <v>7160626</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7">
       <c r="A130" s="2">
         <v>45124</v>
       </c>
@@ -3407,7 +3382,7 @@
         <v>15.55000019073486</v>
       </c>
       <c r="D130">
-        <v>15.329999923706049</v>
+        <v>15.32999992370605</v>
       </c>
       <c r="E130">
         <v>15.52000045776367</v>
@@ -3415,11 +3390,11 @@
       <c r="F130">
         <v>15.52000045776367</v>
       </c>
-      <c r="G130" s="4">
+      <c r="G130">
         <v>4324800</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7">
       <c r="A131" s="2">
         <v>45125</v>
       </c>
@@ -3430,7 +3405,7 @@
         <v>15.80000019073486</v>
       </c>
       <c r="D131">
-        <v>15.310000419616699</v>
+        <v>15.3100004196167</v>
       </c>
       <c r="E131">
         <v>15.72999954223633</v>
@@ -3438,34 +3413,34 @@
       <c r="F131">
         <v>15.72999954223633</v>
       </c>
-      <c r="G131" s="4">
+      <c r="G131">
         <v>10158802</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7">
       <c r="A132" s="2">
         <v>45126</v>
       </c>
       <c r="B132">
-        <v>15.760000228881839</v>
+        <v>15.76000022888184</v>
       </c>
       <c r="C132">
         <v>15.77999973297119</v>
       </c>
       <c r="D132">
-        <v>15.659999847412109</v>
+        <v>15.65999984741211</v>
       </c>
       <c r="E132">
-        <v>15.739999771118161</v>
+        <v>15.73999977111816</v>
       </c>
       <c r="F132">
-        <v>15.739999771118161</v>
-      </c>
-      <c r="G132" s="4">
+        <v>15.73999977111816</v>
+      </c>
+      <c r="G132">
         <v>5693531</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7">
       <c r="A133" s="2">
         <v>45127</v>
       </c>
@@ -3473,10 +3448,10 @@
         <v>15.69999980926514</v>
       </c>
       <c r="C133">
-        <v>15.829999923706049</v>
+        <v>15.82999992370605</v>
       </c>
       <c r="D133">
-        <v>15.579999923706049</v>
+        <v>15.57999992370605</v>
       </c>
       <c r="E133">
         <v>15.60000038146973</v>
@@ -3484,11 +3459,11 @@
       <c r="F133">
         <v>15.60000038146973</v>
       </c>
-      <c r="G133" s="4">
+      <c r="G133">
         <v>6357083</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7">
       <c r="A134" s="2">
         <v>45128</v>
       </c>
@@ -3496,22 +3471,22 @@
         <v>15.60000038146973</v>
       </c>
       <c r="C134">
-        <v>15.689999580383301</v>
+        <v>15.6899995803833</v>
       </c>
       <c r="D134">
-        <v>15.420000076293951</v>
+        <v>15.42000007629395</v>
       </c>
       <c r="E134">
-        <v>15.439999580383301</v>
+        <v>15.4399995803833</v>
       </c>
       <c r="F134">
-        <v>15.439999580383301</v>
-      </c>
-      <c r="G134" s="4">
+        <v>15.4399995803833</v>
+      </c>
+      <c r="G134">
         <v>8633543</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7">
       <c r="A135" s="2">
         <v>45131</v>
       </c>
@@ -3519,7 +3494,7 @@
         <v>15.39000034332275</v>
       </c>
       <c r="C135">
-        <v>15.489999771118161</v>
+        <v>15.48999977111816</v>
       </c>
       <c r="D135">
         <v>15.25</v>
@@ -3530,11 +3505,11 @@
       <c r="F135">
         <v>15.39000034332275</v>
       </c>
-      <c r="G135" s="4">
+      <c r="G135">
         <v>4186176</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7">
       <c r="A136" s="2">
         <v>45132</v>
       </c>
@@ -3542,10 +3517,10 @@
         <v>15.47999954223633</v>
       </c>
       <c r="C136">
-        <v>15.680000305175779</v>
+        <v>15.68000030517578</v>
       </c>
       <c r="D136">
-        <v>15.409999847412109</v>
+        <v>15.40999984741211</v>
       </c>
       <c r="E136">
         <v>15.60000038146973</v>
@@ -3553,11 +3528,11 @@
       <c r="F136">
         <v>15.60000038146973</v>
       </c>
-      <c r="G136" s="4">
+      <c r="G136">
         <v>6163610</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7">
       <c r="A137" s="2">
         <v>45133</v>
       </c>
@@ -3568,7 +3543,7 @@
         <v>15.64000034332275</v>
       </c>
       <c r="D137">
-        <v>15.439999580383301</v>
+        <v>15.4399995803833</v>
       </c>
       <c r="E137">
         <v>15.52999973297119</v>
@@ -3576,11 +3551,11 @@
       <c r="F137">
         <v>15.52999973297119</v>
       </c>
-      <c r="G137" s="4">
+      <c r="G137">
         <v>3817424</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7">
       <c r="A138" s="2">
         <v>45134</v>
       </c>
@@ -3588,22 +3563,22 @@
         <v>15.5</v>
       </c>
       <c r="C138">
-        <v>15.670000076293951</v>
+        <v>15.67000007629395</v>
       </c>
       <c r="D138">
         <v>15.44999980926514</v>
       </c>
       <c r="E138">
-        <v>15.579999923706049</v>
+        <v>15.57999992370605</v>
       </c>
       <c r="F138">
-        <v>15.579999923706049</v>
-      </c>
-      <c r="G138" s="4">
+        <v>15.57999992370605</v>
+      </c>
+      <c r="G138">
         <v>8288715</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7">
       <c r="A139" s="2">
         <v>45135</v>
       </c>
@@ -3617,21 +3592,21 @@
         <v>15.44999980926514</v>
       </c>
       <c r="E139">
-        <v>15.680000305175779</v>
+        <v>15.68000030517578</v>
       </c>
       <c r="F139">
-        <v>15.680000305175779</v>
-      </c>
-      <c r="G139" s="4">
+        <v>15.68000030517578</v>
+      </c>
+      <c r="G139">
         <v>6680840</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7">
       <c r="A140" s="2">
         <v>45138</v>
       </c>
       <c r="B140">
-        <v>15.689999580383301</v>
+        <v>15.6899995803833</v>
       </c>
       <c r="C140">
         <v>15.88000011444092</v>
@@ -3645,11 +3620,11 @@
       <c r="F140">
         <v>15.72000026702881</v>
       </c>
-      <c r="G140" s="4">
+      <c r="G140">
         <v>9911597</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7">
       <c r="A141" s="2">
         <v>45139</v>
       </c>
@@ -3657,56 +3632,56 @@
         <v>15.72000026702881</v>
       </c>
       <c r="C141">
-        <v>15.939999580383301</v>
+        <v>15.9399995803833</v>
       </c>
       <c r="D141">
         <v>15.64999961853027</v>
       </c>
       <c r="E141">
-        <v>15.760000228881839</v>
+        <v>15.76000022888184</v>
       </c>
       <c r="F141">
-        <v>15.760000228881839</v>
-      </c>
-      <c r="G141" s="4">
+        <v>15.76000022888184</v>
+      </c>
+      <c r="G141">
         <v>12278000</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7">
       <c r="A142" s="2">
         <v>45140</v>
       </c>
       <c r="B142">
-        <v>15.659999847412109</v>
+        <v>15.65999984741211</v>
       </c>
       <c r="C142">
         <v>15.75</v>
       </c>
       <c r="D142">
-        <v>15.590000152587891</v>
+        <v>15.59000015258789</v>
       </c>
       <c r="E142">
-        <v>15.680000305175779</v>
+        <v>15.68000030517578</v>
       </c>
       <c r="F142">
-        <v>15.680000305175779</v>
-      </c>
-      <c r="G142" s="4">
+        <v>15.68000030517578</v>
+      </c>
+      <c r="G142">
         <v>5069806</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7">
       <c r="A143" s="2">
         <v>45141</v>
       </c>
       <c r="B143">
-        <v>15.659999847412109</v>
+        <v>15.65999984741211</v>
       </c>
       <c r="C143">
-        <v>15.909999847412109</v>
+        <v>15.90999984741211</v>
       </c>
       <c r="D143">
-        <v>15.590000152587891</v>
+        <v>15.59000015258789</v>
       </c>
       <c r="E143">
         <v>15.86999988555908</v>
@@ -3714,11 +3689,11 @@
       <c r="F143">
         <v>15.86999988555908</v>
       </c>
-      <c r="G143" s="4">
+      <c r="G143">
         <v>7272828</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7">
       <c r="A144" s="2">
         <v>45142</v>
       </c>
@@ -3737,11 +3712,11 @@
       <c r="F144">
         <v>15.75</v>
       </c>
-      <c r="G144" s="4">
+      <c r="G144">
         <v>7107575</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7">
       <c r="A145" s="2">
         <v>45145</v>
       </c>
@@ -3752,19 +3727,19 @@
         <v>15.80000019073486</v>
       </c>
       <c r="D145">
-        <v>15.560000419616699</v>
+        <v>15.5600004196167</v>
       </c>
       <c r="E145">
-        <v>15.659999847412109</v>
+        <v>15.65999984741211</v>
       </c>
       <c r="F145">
-        <v>15.659999847412109</v>
-      </c>
-      <c r="G145" s="4">
+        <v>15.65999984741211</v>
+      </c>
+      <c r="G145">
         <v>5516514</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7">
       <c r="A146" s="2">
         <v>45146</v>
       </c>
@@ -3775,7 +3750,7 @@
         <v>15.77000045776367</v>
       </c>
       <c r="D146">
-        <v>15.590000152587891</v>
+        <v>15.59000015258789</v>
       </c>
       <c r="E146">
         <v>15.64999961853027</v>
@@ -3783,11 +3758,11 @@
       <c r="F146">
         <v>15.64999961853027</v>
       </c>
-      <c r="G146" s="4">
+      <c r="G146">
         <v>4514845</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7">
       <c r="A147" s="2">
         <v>45147</v>
       </c>
@@ -3795,22 +3770,22 @@
         <v>15.60999965667725</v>
       </c>
       <c r="C147">
-        <v>15.659999847412109</v>
+        <v>15.65999984741211</v>
       </c>
       <c r="D147">
-        <v>15.539999961853029</v>
+        <v>15.53999996185303</v>
       </c>
       <c r="E147">
-        <v>15.569999694824221</v>
+        <v>15.56999969482422</v>
       </c>
       <c r="F147">
-        <v>15.569999694824221</v>
-      </c>
-      <c r="G147" s="4">
+        <v>15.56999969482422</v>
+      </c>
+      <c r="G147">
         <v>3819502</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7">
       <c r="A148" s="2">
         <v>45148</v>
       </c>
@@ -3821,7 +3796,7 @@
         <v>15.77000045776367</v>
       </c>
       <c r="D148">
-        <v>15.539999961853029</v>
+        <v>15.53999996185303</v>
       </c>
       <c r="E148">
         <v>15.64999961853027</v>
@@ -3829,11 +3804,11 @@
       <c r="F148">
         <v>15.64999961853027</v>
       </c>
-      <c r="G148" s="4">
+      <c r="G148">
         <v>5356203</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7">
       <c r="A149" s="2">
         <v>45149</v>
       </c>
@@ -3844,7 +3819,7 @@
         <v>15.64000034332275</v>
       </c>
       <c r="D149">
-        <v>15.210000038146971</v>
+        <v>15.21000003814697</v>
       </c>
       <c r="E149">
         <v>15.22999954223633</v>
@@ -3852,11 +3827,11 @@
       <c r="F149">
         <v>15.22999954223633</v>
       </c>
-      <c r="G149" s="4">
+      <c r="G149">
         <v>7225500</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7">
       <c r="A150" s="2">
         <v>45152</v>
       </c>
@@ -3867,7 +3842,7 @@
         <v>15.25</v>
       </c>
       <c r="D150">
-        <v>15.060000419616699</v>
+        <v>15.0600004196167</v>
       </c>
       <c r="E150">
         <v>15.22000026702881</v>
@@ -3875,11 +3850,11 @@
       <c r="F150">
         <v>15.22000026702881</v>
       </c>
-      <c r="G150" s="4">
+      <c r="G150">
         <v>3942641</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7">
       <c r="A151" s="2">
         <v>45153</v>
       </c>
@@ -3898,11 +3873,11 @@
       <c r="F151">
         <v>15.02000045776367</v>
       </c>
-      <c r="G151" s="4">
+      <c r="G151">
         <v>8673568</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7">
       <c r="A152" s="2">
         <v>45154</v>
       </c>
@@ -3921,16 +3896,16 @@
       <c r="F152">
         <v>14.97999954223633</v>
       </c>
-      <c r="G152" s="4">
+      <c r="G152">
         <v>5805180</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7">
       <c r="A153" s="2">
         <v>45155</v>
       </c>
       <c r="B153">
-        <v>14.909999847412109</v>
+        <v>14.90999984741211</v>
       </c>
       <c r="C153">
         <v>15.10999965667725</v>
@@ -3939,24 +3914,24 @@
         <v>14.72999954223633</v>
       </c>
       <c r="E153">
-        <v>15.079999923706049</v>
+        <v>15.07999992370605</v>
       </c>
       <c r="F153">
-        <v>15.079999923706049</v>
-      </c>
-      <c r="G153" s="4">
+        <v>15.07999992370605</v>
+      </c>
+      <c r="G153">
         <v>8907106</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7">
       <c r="A154" s="2">
         <v>45156</v>
       </c>
       <c r="B154">
-        <v>15.060000419616699</v>
+        <v>15.0600004196167</v>
       </c>
       <c r="C154">
-        <v>15.239999771118161</v>
+        <v>15.23999977111816</v>
       </c>
       <c r="D154">
         <v>14.94999980926514</v>
@@ -3967,11 +3942,11 @@
       <c r="F154">
         <v>14.97999954223633</v>
       </c>
-      <c r="G154" s="4">
+      <c r="G154">
         <v>7608689</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7">
       <c r="A155" s="2">
         <v>45159</v>
       </c>
@@ -3979,22 +3954,22 @@
         <v>14.94999980926514</v>
       </c>
       <c r="C155">
-        <v>14.960000038146971</v>
+        <v>14.96000003814697</v>
       </c>
       <c r="D155">
-        <v>14.560000419616699</v>
+        <v>14.5600004196167</v>
       </c>
       <c r="E155">
-        <v>14.560000419616699</v>
+        <v>14.5600004196167</v>
       </c>
       <c r="F155">
-        <v>14.560000419616699</v>
-      </c>
-      <c r="G155" s="4">
+        <v>14.5600004196167</v>
+      </c>
+      <c r="G155">
         <v>7533424</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7">
       <c r="A156" s="2">
         <v>45160</v>
       </c>
@@ -4005,7 +3980,7 @@
         <v>14.72000026702881</v>
       </c>
       <c r="D156">
-        <v>14.180000305175779</v>
+        <v>14.18000030517578</v>
       </c>
       <c r="E156">
         <v>14.35000038146973</v>
@@ -4013,11 +3988,11 @@
       <c r="F156">
         <v>14.35000038146973</v>
       </c>
-      <c r="G156" s="4">
+      <c r="G156">
         <v>13994238</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7">
       <c r="A157" s="2">
         <v>45161</v>
       </c>
@@ -4036,62 +4011,62 @@
       <c r="F157">
         <v>14.47000026702881</v>
       </c>
-      <c r="G157" s="4">
+      <c r="G157">
         <v>11015030</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7">
       <c r="A158" s="2">
         <v>45162</v>
       </c>
       <c r="B158">
-        <v>14.510000228881839</v>
+        <v>14.51000022888184</v>
       </c>
       <c r="C158">
-        <v>14.590000152587891</v>
+        <v>14.59000015258789</v>
       </c>
       <c r="D158">
         <v>14.25</v>
       </c>
       <c r="E158">
-        <v>14.260000228881839</v>
+        <v>14.26000022888184</v>
       </c>
       <c r="F158">
-        <v>14.260000228881839</v>
-      </c>
-      <c r="G158" s="4">
+        <v>14.26000022888184</v>
+      </c>
+      <c r="G158">
         <v>12805437</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7">
       <c r="A159" s="2">
         <v>45163</v>
       </c>
       <c r="B159">
-        <v>14.260000228881839</v>
+        <v>14.26000022888184</v>
       </c>
       <c r="C159">
         <v>14.39999961853027</v>
       </c>
       <c r="D159">
-        <v>14.069999694824221</v>
+        <v>14.06999969482422</v>
       </c>
       <c r="E159">
-        <v>14.260000228881839</v>
+        <v>14.26000022888184</v>
       </c>
       <c r="F159">
-        <v>14.260000228881839</v>
-      </c>
-      <c r="G159" s="4">
+        <v>14.26000022888184</v>
+      </c>
+      <c r="G159">
         <v>6638042</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7">
       <c r="A160" s="2">
         <v>45166</v>
       </c>
       <c r="B160">
-        <v>14.810000419616699</v>
+        <v>14.8100004196167</v>
       </c>
       <c r="C160">
         <v>14.97000026702881</v>
@@ -4105,11 +4080,11 @@
       <c r="F160">
         <v>14.35999965667725</v>
       </c>
-      <c r="G160" s="4">
+      <c r="G160">
         <v>14150639</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7">
       <c r="A161" s="2">
         <v>45167</v>
       </c>
@@ -4117,30 +4092,30 @@
         <v>14.35000038146973</v>
       </c>
       <c r="C161">
-        <v>14.689999580383301</v>
+        <v>14.6899995803833</v>
       </c>
       <c r="D161">
-        <v>14.260000228881839</v>
+        <v>14.26000022888184</v>
       </c>
       <c r="E161">
-        <v>14.659999847412109</v>
+        <v>14.65999984741211</v>
       </c>
       <c r="F161">
-        <v>14.659999847412109</v>
-      </c>
-      <c r="G161" s="4">
+        <v>14.65999984741211</v>
+      </c>
+      <c r="G161">
         <v>11500734</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7">
       <c r="A162" s="2">
         <v>45168</v>
       </c>
       <c r="B162">
-        <v>14.689999580383301</v>
+        <v>14.6899995803833</v>
       </c>
       <c r="C162">
-        <v>14.930000305175779</v>
+        <v>14.93000030517578</v>
       </c>
       <c r="D162">
         <v>14.63000011444092</v>
@@ -4151,11 +4126,11 @@
       <c r="F162">
         <v>14.89999961853027</v>
       </c>
-      <c r="G162" s="4">
+      <c r="G162">
         <v>16502662</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7">
       <c r="A163" s="2">
         <v>45169</v>
       </c>
@@ -4166,7 +4141,7 @@
         <v>15.13000011444092</v>
       </c>
       <c r="D163">
-        <v>14.819999694824221</v>
+        <v>14.81999969482422</v>
       </c>
       <c r="E163">
         <v>15.10000038146973</v>
@@ -4174,34 +4149,34 @@
       <c r="F163">
         <v>15.10000038146973</v>
       </c>
-      <c r="G163" s="4">
+      <c r="G163">
         <v>8778004</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7">
       <c r="A164" s="2">
         <v>45170</v>
       </c>
       <c r="B164">
-        <v>15.069999694824221</v>
+        <v>15.06999969482422</v>
       </c>
       <c r="C164">
         <v>15.64000034332275</v>
       </c>
       <c r="D164">
-        <v>15.060000419616699</v>
+        <v>15.0600004196167</v>
       </c>
       <c r="E164">
-        <v>15.560000419616699</v>
+        <v>15.5600004196167</v>
       </c>
       <c r="F164">
-        <v>15.560000419616699</v>
-      </c>
-      <c r="G164" s="4">
+        <v>15.5600004196167</v>
+      </c>
+      <c r="G164">
         <v>15748189</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7">
       <c r="A165" s="2">
         <v>45173</v>
       </c>
@@ -4209,10 +4184,10 @@
         <v>15.60000038146973</v>
       </c>
       <c r="C165">
-        <v>15.710000038146971</v>
+        <v>15.71000003814697</v>
       </c>
       <c r="D165">
-        <v>15.510000228881839</v>
+        <v>15.51000022888184</v>
       </c>
       <c r="E165">
         <v>15.60999965667725</v>
@@ -4220,19 +4195,19 @@
       <c r="F165">
         <v>15.60999965667725</v>
       </c>
-      <c r="G165" s="4">
+      <c r="G165">
         <v>11444980</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7">
       <c r="A166" s="2">
         <v>45174</v>
       </c>
       <c r="B166">
-        <v>15.560000419616699</v>
+        <v>15.5600004196167</v>
       </c>
       <c r="C166">
-        <v>15.739999771118161</v>
+        <v>15.73999977111816</v>
       </c>
       <c r="D166">
         <v>15.52000045776367</v>
@@ -4243,34 +4218,34 @@
       <c r="F166">
         <v>15.61999988555908</v>
       </c>
-      <c r="G166" s="4">
+      <c r="G166">
         <v>5949049</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7">
       <c r="A167" s="2">
         <v>45175</v>
       </c>
       <c r="B167">
-        <v>15.659999847412109</v>
+        <v>15.65999984741211</v>
       </c>
       <c r="C167">
-        <v>15.659999847412109</v>
+        <v>15.65999984741211</v>
       </c>
       <c r="D167">
         <v>15.36999988555908</v>
       </c>
       <c r="E167">
-        <v>15.430000305175779</v>
+        <v>15.43000030517578</v>
       </c>
       <c r="F167">
-        <v>15.430000305175779</v>
-      </c>
-      <c r="G167" s="4">
+        <v>15.43000030517578</v>
+      </c>
+      <c r="G167">
         <v>10977697</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7">
       <c r="A168" s="2">
         <v>45176</v>
       </c>
@@ -4284,16 +4259,16 @@
         <v>15</v>
       </c>
       <c r="E168">
-        <v>15.060000419616699</v>
+        <v>15.0600004196167</v>
       </c>
       <c r="F168">
-        <v>15.060000419616699</v>
-      </c>
-      <c r="G168" s="4">
+        <v>15.0600004196167</v>
+      </c>
+      <c r="G168">
         <v>11487616</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7">
       <c r="A169" s="2">
         <v>45177</v>
       </c>
@@ -4312,57 +4287,57 @@
       <c r="F169">
         <v>14.77000045776367</v>
       </c>
-      <c r="G169" s="4">
+      <c r="G169">
         <v>9765079</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7">
       <c r="A170" s="2">
         <v>45180</v>
       </c>
       <c r="B170">
-        <v>14.819999694824221</v>
+        <v>14.81999969482422</v>
       </c>
       <c r="C170">
         <v>15.05000019073486</v>
       </c>
       <c r="D170">
-        <v>14.789999961853029</v>
+        <v>14.78999996185303</v>
       </c>
       <c r="E170">
-        <v>14.960000038146971</v>
+        <v>14.96000003814697</v>
       </c>
       <c r="F170">
-        <v>14.960000038146971</v>
-      </c>
-      <c r="G170" s="4">
+        <v>14.96000003814697</v>
+      </c>
+      <c r="G170">
         <v>4867080</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7">
       <c r="A171" s="2">
         <v>45181</v>
       </c>
       <c r="B171">
-        <v>14.909999847412109</v>
+        <v>14.90999984741211</v>
       </c>
       <c r="C171">
         <v>14.94999980926514</v>
       </c>
       <c r="D171">
-        <v>14.789999961853029</v>
+        <v>14.78999996185303</v>
       </c>
       <c r="E171">
-        <v>14.819999694824221</v>
+        <v>14.81999969482422</v>
       </c>
       <c r="F171">
-        <v>14.819999694824221</v>
-      </c>
-      <c r="G171" s="4">
+        <v>14.81999969482422</v>
+      </c>
+      <c r="G171">
         <v>3922700</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7">
       <c r="A172" s="2">
         <v>45182</v>
       </c>
@@ -4376,16 +4351,16 @@
         <v>14.64999961853027</v>
       </c>
       <c r="E172">
-        <v>14.760000228881839</v>
+        <v>14.76000022888184</v>
       </c>
       <c r="F172">
-        <v>14.760000228881839</v>
-      </c>
-      <c r="G172" s="4">
+        <v>14.76000022888184</v>
+      </c>
+      <c r="G172">
         <v>5014000</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7">
       <c r="A173" s="2">
         <v>45183</v>
       </c>
@@ -4393,33 +4368,33 @@
         <v>14.75</v>
       </c>
       <c r="C173">
-        <v>14.789999961853029</v>
+        <v>14.78999996185303</v>
       </c>
       <c r="D173">
-        <v>14.590000152587891</v>
+        <v>14.59000015258789</v>
       </c>
       <c r="E173">
-        <v>14.659999847412109</v>
+        <v>14.65999984741211</v>
       </c>
       <c r="F173">
-        <v>14.659999847412109</v>
-      </c>
-      <c r="G173" s="4">
+        <v>14.65999984741211</v>
+      </c>
+      <c r="G173">
         <v>4557402</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7">
       <c r="A174" s="2">
         <v>45184</v>
       </c>
       <c r="B174">
-        <v>14.659999847412109</v>
+        <v>14.65999984741211</v>
       </c>
       <c r="C174">
         <v>14.69999980926514</v>
       </c>
       <c r="D174">
-        <v>14.460000038146971</v>
+        <v>14.46000003814697</v>
       </c>
       <c r="E174">
         <v>14.55000019073486</v>
@@ -4427,11 +4402,11 @@
       <c r="F174">
         <v>14.55000019073486</v>
       </c>
-      <c r="G174" s="4">
+      <c r="G174">
         <v>10653779</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7">
       <c r="A175" s="2">
         <v>45187</v>
       </c>
@@ -4450,22 +4425,22 @@
       <c r="F175">
         <v>14.72000026702881</v>
       </c>
-      <c r="G175" s="4">
+      <c r="G175">
         <v>8783552</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:7">
       <c r="A176" s="2">
         <v>45188</v>
       </c>
       <c r="B176">
-        <v>14.710000038146971</v>
+        <v>14.71000003814697</v>
       </c>
       <c r="C176">
         <v>14.89000034332275</v>
       </c>
       <c r="D176">
-        <v>14.659999847412109</v>
+        <v>14.65999984741211</v>
       </c>
       <c r="E176">
         <v>14.85999965667725</v>
@@ -4473,11 +4448,11 @@
       <c r="F176">
         <v>14.85999965667725</v>
       </c>
-      <c r="G176" s="4">
+      <c r="G176">
         <v>8057300</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:7">
       <c r="A177" s="2">
         <v>45189</v>
       </c>
@@ -4491,21 +4466,21 @@
         <v>14.72000026702881</v>
       </c>
       <c r="E177">
-        <v>14.760000228881839</v>
+        <v>14.76000022888184</v>
       </c>
       <c r="F177">
-        <v>14.760000228881839</v>
-      </c>
-      <c r="G177" s="4">
+        <v>14.76000022888184</v>
+      </c>
+      <c r="G177">
         <v>5121182</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:7">
       <c r="A178" s="2">
         <v>45190</v>
       </c>
       <c r="B178">
-        <v>14.760000228881839</v>
+        <v>14.76000022888184</v>
       </c>
       <c r="C178">
         <v>14.89999961853027</v>
@@ -4519,34 +4494,34 @@
       <c r="F178">
         <v>14.80000019073486</v>
       </c>
-      <c r="G178" s="4">
+      <c r="G178">
         <v>7493432</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:7">
       <c r="A179" s="2">
         <v>45191</v>
       </c>
       <c r="B179">
-        <v>14.760000228881839</v>
+        <v>14.76000022888184</v>
       </c>
       <c r="C179">
-        <v>14.960000038146971</v>
+        <v>14.96000003814697</v>
       </c>
       <c r="D179">
-        <v>14.710000038146971</v>
+        <v>14.71000003814697</v>
       </c>
       <c r="E179">
-        <v>14.930000305175779</v>
+        <v>14.93000030517578</v>
       </c>
       <c r="F179">
-        <v>14.930000305175779</v>
-      </c>
-      <c r="G179" s="4">
+        <v>14.93000030517578</v>
+      </c>
+      <c r="G179">
         <v>8357642</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:7">
       <c r="A180" s="2">
         <v>45194</v>
       </c>
@@ -4557,19 +4532,19 @@
         <v>15.05000019073486</v>
       </c>
       <c r="D180">
-        <v>14.829999923706049</v>
+        <v>14.82999992370605</v>
       </c>
       <c r="E180">
-        <v>14.909999847412109</v>
+        <v>14.90999984741211</v>
       </c>
       <c r="F180">
-        <v>14.909999847412109</v>
-      </c>
-      <c r="G180" s="4">
+        <v>14.90999984741211</v>
+      </c>
+      <c r="G180">
         <v>10362431</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:7">
       <c r="A181" s="2">
         <v>45195</v>
       </c>
@@ -4583,16 +4558,16 @@
         <v>14.69999980926514</v>
       </c>
       <c r="E181">
-        <v>14.739999771118161</v>
+        <v>14.73999977111816</v>
       </c>
       <c r="F181">
-        <v>14.739999771118161</v>
-      </c>
-      <c r="G181" s="4">
+        <v>14.73999977111816</v>
+      </c>
+      <c r="G181">
         <v>5728605</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:7">
       <c r="A182" s="2">
         <v>45196</v>
       </c>
@@ -4600,7 +4575,7 @@
         <v>14.72999954223633</v>
       </c>
       <c r="C182">
-        <v>15.069999694824221</v>
+        <v>15.06999969482422</v>
       </c>
       <c r="D182">
         <v>14.72999954223633</v>
@@ -4611,16 +4586,16 @@
       <c r="F182">
         <v>15.05000019073486</v>
       </c>
-      <c r="G182" s="4">
+      <c r="G182">
         <v>8855885</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:7">
       <c r="A183" s="2">
         <v>45197</v>
       </c>
       <c r="B183">
-        <v>15.060000419616699</v>
+        <v>15.0600004196167</v>
       </c>
       <c r="C183">
         <v>15.14999961853027</v>
@@ -4634,11 +4609,11 @@
       <c r="F183">
         <v>15.02999973297119</v>
       </c>
-      <c r="G183" s="4">
+      <c r="G183">
         <v>7980577</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:7">
       <c r="A184" s="2">
         <v>45208</v>
       </c>
@@ -4657,34 +4632,34 @@
       <c r="F184">
         <v>14.97000026702881</v>
       </c>
-      <c r="G184" s="4">
+      <c r="G184">
         <v>10108929</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:7">
       <c r="A185" s="2">
         <v>45209</v>
       </c>
       <c r="B185">
-        <v>15.039999961853029</v>
+        <v>15.03999996185303</v>
       </c>
       <c r="C185">
-        <v>15.090000152587891</v>
+        <v>15.09000015258789</v>
       </c>
       <c r="D185">
         <v>14.60999965667725</v>
       </c>
       <c r="E185">
-        <v>14.659999847412109</v>
+        <v>14.65999984741211</v>
       </c>
       <c r="F185">
-        <v>14.659999847412109</v>
-      </c>
-      <c r="G185" s="4">
+        <v>14.65999984741211</v>
+      </c>
+      <c r="G185">
         <v>10728400</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:7">
       <c r="A186" s="2">
         <v>45210</v>
       </c>
@@ -4703,11 +4678,11 @@
       <c r="F186">
         <v>14.60000038146973</v>
       </c>
-      <c r="G186" s="4">
+      <c r="G186">
         <v>6316764</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:7">
       <c r="A187" s="2">
         <v>45211</v>
       </c>
@@ -4721,16 +4696,16 @@
         <v>14.47000026702881</v>
       </c>
       <c r="E187">
-        <v>14.510000228881839</v>
+        <v>14.51000022888184</v>
       </c>
       <c r="F187">
-        <v>14.510000228881839</v>
-      </c>
-      <c r="G187" s="4">
+        <v>14.51000022888184</v>
+      </c>
+      <c r="G187">
         <v>7132875</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:7">
       <c r="A188" s="2">
         <v>45212</v>
       </c>
@@ -4741,19 +4716,19 @@
         <v>14.47999954223633</v>
       </c>
       <c r="D188">
-        <v>13.909999847412109</v>
+        <v>13.90999984741211</v>
       </c>
       <c r="E188">
-        <v>14.060000419616699</v>
+        <v>14.0600004196167</v>
       </c>
       <c r="F188">
-        <v>14.060000419616699</v>
-      </c>
-      <c r="G188" s="4">
+        <v>14.0600004196167</v>
+      </c>
+      <c r="G188">
         <v>13073020</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:7">
       <c r="A189" s="2">
         <v>45215</v>
       </c>
@@ -4767,16 +4742,16 @@
         <v>13.88000011444092</v>
       </c>
       <c r="E189">
-        <v>13.989999771118161</v>
+        <v>13.98999977111816</v>
       </c>
       <c r="F189">
-        <v>13.989999771118161</v>
-      </c>
-      <c r="G189" s="4">
+        <v>13.98999977111816</v>
+      </c>
+      <c r="G189">
         <v>8100275</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:7">
       <c r="A190" s="2">
         <v>45216</v>
       </c>
@@ -4787,27 +4762,27 @@
         <v>14.02000045776367</v>
       </c>
       <c r="D190">
-        <v>13.409999847412109</v>
+        <v>13.40999984741211</v>
       </c>
       <c r="E190">
-        <v>13.659999847412109</v>
+        <v>13.65999984741211</v>
       </c>
       <c r="F190">
-        <v>13.659999847412109</v>
-      </c>
-      <c r="G190" s="4">
+        <v>13.65999984741211</v>
+      </c>
+      <c r="G190">
         <v>15373339</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:7">
       <c r="A191" s="2">
         <v>45217</v>
       </c>
       <c r="B191">
-        <v>13.659999847412109</v>
+        <v>13.65999984741211</v>
       </c>
       <c r="C191">
-        <v>13.680000305175779</v>
+        <v>13.68000030517578</v>
       </c>
       <c r="D191">
         <v>13.38000011444092</v>
@@ -4818,11 +4793,11 @@
       <c r="F191">
         <v>13.55000019073486</v>
       </c>
-      <c r="G191" s="4">
+      <c r="G191">
         <v>15050615</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:7">
       <c r="A192" s="2">
         <v>45218</v>
       </c>
@@ -4836,24 +4811,24 @@
         <v>13.38000011444092</v>
       </c>
       <c r="E192">
-        <v>13.579999923706049</v>
+        <v>13.57999992370605</v>
       </c>
       <c r="F192">
-        <v>13.579999923706049</v>
-      </c>
-      <c r="G192" s="4">
+        <v>13.57999992370605</v>
+      </c>
+      <c r="G192">
         <v>11869900</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:7">
       <c r="A193" s="2">
         <v>45219</v>
       </c>
       <c r="B193">
-        <v>13.510000228881839</v>
+        <v>13.51000022888184</v>
       </c>
       <c r="C193">
-        <v>13.539999961853029</v>
+        <v>13.53999996185303</v>
       </c>
       <c r="D193">
         <v>13.25</v>
@@ -4864,11 +4839,11 @@
       <c r="F193">
         <v>13.27999973297119</v>
       </c>
-      <c r="G193" s="4">
+      <c r="G193">
         <v>8549620</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:7">
       <c r="A194" s="2">
         <v>45222</v>
       </c>
@@ -4876,7 +4851,7 @@
         <v>13.27999973297119</v>
       </c>
       <c r="C194">
-        <v>13.590000152587891</v>
+        <v>13.59000015258789</v>
       </c>
       <c r="D194">
         <v>13.22999954223633</v>
@@ -4887,11 +4862,11 @@
       <c r="F194">
         <v>13.39999961853027</v>
       </c>
-      <c r="G194" s="4">
+      <c r="G194">
         <v>11939568</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:7">
       <c r="A195" s="2">
         <v>45223</v>
       </c>
@@ -4902,7 +4877,7 @@
         <v>13.55000019073486</v>
       </c>
       <c r="D195">
-        <v>13.170000076293951</v>
+        <v>13.17000007629395</v>
       </c>
       <c r="E195">
         <v>13.47999954223633</v>
@@ -4910,16 +4885,16 @@
       <c r="F195">
         <v>13.47999954223633</v>
       </c>
-      <c r="G195" s="4">
+      <c r="G195">
         <v>12602879</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:7">
       <c r="A196" s="2">
         <v>45224</v>
       </c>
       <c r="B196">
-        <v>13.560000419616699</v>
+        <v>13.5600004196167</v>
       </c>
       <c r="C196">
         <v>13.61999988555908</v>
@@ -4933,11 +4908,11 @@
       <c r="F196">
         <v>13.35000038146973</v>
       </c>
-      <c r="G196" s="4">
+      <c r="G196">
         <v>9067060</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:7">
       <c r="A197" s="2">
         <v>45225</v>
       </c>
@@ -4951,39 +4926,39 @@
         <v>13.22999954223633</v>
       </c>
       <c r="E197">
-        <v>13.439999580383301</v>
+        <v>13.4399995803833</v>
       </c>
       <c r="F197">
-        <v>13.439999580383301</v>
-      </c>
-      <c r="G197" s="4">
+        <v>13.4399995803833</v>
+      </c>
+      <c r="G197">
         <v>6686575</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:7">
       <c r="A198" s="2">
         <v>45226</v>
       </c>
       <c r="B198">
-        <v>13.340000152587891</v>
+        <v>13.34000015258789</v>
       </c>
       <c r="C198">
-        <v>13.710000038146971</v>
+        <v>13.71000003814697</v>
       </c>
       <c r="D198">
         <v>13.27000045776367</v>
       </c>
       <c r="E198">
-        <v>13.670000076293951</v>
+        <v>13.67000007629395</v>
       </c>
       <c r="F198">
-        <v>13.670000076293951</v>
-      </c>
-      <c r="G198" s="4">
+        <v>13.67000007629395</v>
+      </c>
+      <c r="G198">
         <v>9093596</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:7">
       <c r="A199" s="2">
         <v>45229</v>
       </c>
@@ -4994,7 +4969,7 @@
         <v>13.75</v>
       </c>
       <c r="D199">
-        <v>13.539999961853029</v>
+        <v>13.53999996185303</v>
       </c>
       <c r="E199">
         <v>13.64000034332275</v>
@@ -5002,11 +4977,11 @@
       <c r="F199">
         <v>13.64000034332275</v>
       </c>
-      <c r="G199" s="4">
+      <c r="G199">
         <v>8327950</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:7">
       <c r="A200" s="2">
         <v>45230</v>
       </c>
@@ -5014,22 +4989,22 @@
         <v>13.64000034332275</v>
       </c>
       <c r="C200">
-        <v>13.680000305175779</v>
+        <v>13.68000030517578</v>
       </c>
       <c r="D200">
-        <v>13.489999771118161</v>
+        <v>13.48999977111816</v>
       </c>
       <c r="E200">
-        <v>13.579999923706049</v>
+        <v>13.57999992370605</v>
       </c>
       <c r="F200">
-        <v>13.579999923706049</v>
-      </c>
-      <c r="G200" s="4">
+        <v>13.57999992370605</v>
+      </c>
+      <c r="G200">
         <v>6127376</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:7">
       <c r="A201" s="2">
         <v>45231</v>
       </c>
@@ -5040,19 +5015,19 @@
         <v>13.64000034332275</v>
       </c>
       <c r="D201">
-        <v>13.460000038146971</v>
+        <v>13.46000003814697</v>
       </c>
       <c r="E201">
-        <v>13.539999961853029</v>
+        <v>13.53999996185303</v>
       </c>
       <c r="F201">
-        <v>13.539999961853029</v>
-      </c>
-      <c r="G201" s="4">
+        <v>13.53999996185303</v>
+      </c>
+      <c r="G201">
         <v>4271278</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:7">
       <c r="A202" s="2">
         <v>45232</v>
       </c>
@@ -5066,16 +5041,16 @@
         <v>13.39000034332275</v>
       </c>
       <c r="E202">
-        <v>13.460000038146971</v>
+        <v>13.46000003814697</v>
       </c>
       <c r="F202">
-        <v>13.460000038146971</v>
-      </c>
-      <c r="G202" s="4">
+        <v>13.46000003814697</v>
+      </c>
+      <c r="G202">
         <v>4256308</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:7">
       <c r="A203" s="2">
         <v>45233</v>
       </c>
@@ -5083,7 +5058,7 @@
         <v>13.47000026702881</v>
       </c>
       <c r="C203">
-        <v>13.739999771118161</v>
+        <v>13.73999977111816</v>
       </c>
       <c r="D203">
         <v>13.39999961853027</v>
@@ -5094,11 +5069,11 @@
       <c r="F203">
         <v>13.72999954223633</v>
       </c>
-      <c r="G203" s="4">
+      <c r="G203">
         <v>7052263</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:7">
       <c r="A204" s="2">
         <v>45236</v>
       </c>
@@ -5106,22 +5081,22 @@
         <v>13.72999954223633</v>
       </c>
       <c r="C204">
-        <v>13.930000305175779</v>
+        <v>13.93000030517578</v>
       </c>
       <c r="D204">
         <v>13.69999980926514</v>
       </c>
       <c r="E204">
-        <v>13.829999923706049</v>
+        <v>13.82999992370605</v>
       </c>
       <c r="F204">
-        <v>13.829999923706049</v>
-      </c>
-      <c r="G204" s="4">
+        <v>13.82999992370605</v>
+      </c>
+      <c r="G204">
         <v>10199497</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:7">
       <c r="A205" s="2">
         <v>45237</v>
       </c>
@@ -5132,7 +5107,7 @@
         <v>13.80000019073486</v>
       </c>
       <c r="D205">
-        <v>13.510000228881839</v>
+        <v>13.51000022888184</v>
       </c>
       <c r="E205">
         <v>13.60000038146973</v>
@@ -5140,57 +5115,57 @@
       <c r="F205">
         <v>13.60000038146973</v>
       </c>
-      <c r="G205" s="4">
+      <c r="G205">
         <v>7705160</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:7">
       <c r="A206" s="2">
         <v>45238</v>
       </c>
       <c r="B206">
-        <v>13.560000419616699</v>
+        <v>13.5600004196167</v>
       </c>
       <c r="C206">
         <v>13.61999988555908</v>
       </c>
       <c r="D206">
-        <v>13.489999771118161</v>
+        <v>13.48999977111816</v>
       </c>
       <c r="E206">
-        <v>13.539999961853029</v>
+        <v>13.53999996185303</v>
       </c>
       <c r="F206">
-        <v>13.539999961853029</v>
-      </c>
-      <c r="G206" s="4">
+        <v>13.53999996185303</v>
+      </c>
+      <c r="G206">
         <v>5813700</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:7">
       <c r="A207" s="2">
         <v>45239</v>
       </c>
       <c r="B207">
-        <v>13.539999961853029</v>
+        <v>13.53999996185303</v>
       </c>
       <c r="C207">
-        <v>13.789999961853029</v>
+        <v>13.78999996185303</v>
       </c>
       <c r="D207">
-        <v>13.489999771118161</v>
+        <v>13.48999977111816</v>
       </c>
       <c r="E207">
-        <v>13.739999771118161</v>
+        <v>13.73999977111816</v>
       </c>
       <c r="F207">
-        <v>13.739999771118161</v>
-      </c>
-      <c r="G207" s="4">
+        <v>13.73999977111816</v>
+      </c>
+      <c r="G207">
         <v>9254916</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:7">
       <c r="A208" s="2">
         <v>45240</v>
       </c>
@@ -5201,7 +5176,7 @@
         <v>13.72999954223633</v>
       </c>
       <c r="D208">
-        <v>13.239999771118161</v>
+        <v>13.23999977111816</v>
       </c>
       <c r="E208">
         <v>13.60999965667725</v>
@@ -5209,16 +5184,16 @@
       <c r="F208">
         <v>13.60999965667725</v>
       </c>
-      <c r="G208" s="4">
+      <c r="G208">
         <v>11117147</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:7">
       <c r="A209" s="2">
         <v>45243</v>
       </c>
       <c r="B209">
-        <v>13.539999961853029</v>
+        <v>13.53999996185303</v>
       </c>
       <c r="C209">
         <v>13.61999988555908</v>
@@ -5227,21 +5202,21 @@
         <v>13.39999961853027</v>
       </c>
       <c r="E209">
-        <v>13.560000419616699</v>
+        <v>13.5600004196167</v>
       </c>
       <c r="F209">
-        <v>13.560000419616699</v>
-      </c>
-      <c r="G209" s="4">
+        <v>13.5600004196167</v>
+      </c>
+      <c r="G209">
         <v>6242124</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:7">
       <c r="A210" s="2">
         <v>45244</v>
       </c>
       <c r="B210">
-        <v>13.569999694824221</v>
+        <v>13.56999969482422</v>
       </c>
       <c r="C210">
         <v>13.72999954223633</v>
@@ -5250,16 +5225,16 @@
         <v>13.52000045776367</v>
       </c>
       <c r="E210">
-        <v>13.579999923706049</v>
+        <v>13.57999992370605</v>
       </c>
       <c r="F210">
-        <v>13.579999923706049</v>
-      </c>
-      <c r="G210" s="4">
+        <v>13.57999992370605</v>
+      </c>
+      <c r="G210">
         <v>5313200</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:7">
       <c r="A211" s="2">
         <v>45245</v>
       </c>
@@ -5270,7 +5245,7 @@
         <v>13.72000026702881</v>
       </c>
       <c r="D211">
-        <v>13.569999694824221</v>
+        <v>13.56999969482422</v>
       </c>
       <c r="E211">
         <v>13.64000034332275</v>
@@ -5278,11 +5253,11 @@
       <c r="F211">
         <v>13.64000034332275</v>
       </c>
-      <c r="G211" s="4">
+      <c r="G211">
         <v>5747015</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:7">
       <c r="A212" s="2">
         <v>45246</v>
       </c>
@@ -5290,22 +5265,22 @@
         <v>13.60000038146973</v>
       </c>
       <c r="C212">
-        <v>13.760000228881839</v>
+        <v>13.76000022888184</v>
       </c>
       <c r="D212">
-        <v>13.409999847412109</v>
+        <v>13.40999984741211</v>
       </c>
       <c r="E212">
-        <v>13.539999961853029</v>
+        <v>13.53999996185303</v>
       </c>
       <c r="F212">
-        <v>13.539999961853029</v>
-      </c>
-      <c r="G212" s="4">
+        <v>13.53999996185303</v>
+      </c>
+      <c r="G212">
         <v>6621800</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:7">
       <c r="A213" s="2">
         <v>45247</v>
       </c>
@@ -5313,33 +5288,33 @@
         <v>13.5</v>
       </c>
       <c r="C213">
-        <v>13.560000419616699</v>
+        <v>13.5600004196167</v>
       </c>
       <c r="D213">
         <v>13.39999961853027</v>
       </c>
       <c r="E213">
-        <v>13.539999961853029</v>
+        <v>13.53999996185303</v>
       </c>
       <c r="F213">
-        <v>13.539999961853029</v>
-      </c>
-      <c r="G213" s="4">
+        <v>13.53999996185303</v>
+      </c>
+      <c r="G213">
         <v>5496115</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:7">
       <c r="A214" s="2">
         <v>45250</v>
       </c>
       <c r="B214">
-        <v>13.590000152587891</v>
+        <v>13.59000015258789</v>
       </c>
       <c r="C214">
         <v>13.61999988555908</v>
       </c>
       <c r="D214">
-        <v>13.340000152587891</v>
+        <v>13.34000015258789</v>
       </c>
       <c r="E214">
         <v>13.52999973297119</v>
@@ -5347,11 +5322,11 @@
       <c r="F214">
         <v>13.52999973297119</v>
       </c>
-      <c r="G214" s="4">
+      <c r="G214">
         <v>9026362</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:7">
       <c r="A215" s="2">
         <v>45251</v>
       </c>
@@ -5370,11 +5345,11 @@
       <c r="F215">
         <v>13.47999954223633</v>
       </c>
-      <c r="G215" s="4">
+      <c r="G215">
         <v>5784379</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:7">
       <c r="A216" s="2">
         <v>45252</v>
       </c>
@@ -5382,10 +5357,10 @@
         <v>13.47000026702881</v>
       </c>
       <c r="C216">
-        <v>13.489999771118161</v>
+        <v>13.48999977111816</v>
       </c>
       <c r="D216">
-        <v>13.340000152587891</v>
+        <v>13.34000015258789</v>
       </c>
       <c r="E216">
         <v>13.36999988555908</v>
@@ -5393,22 +5368,22 @@
       <c r="F216">
         <v>13.36999988555908</v>
       </c>
-      <c r="G216" s="4">
+      <c r="G216">
         <v>5195860</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:7">
       <c r="A217" s="2">
         <v>45253</v>
       </c>
       <c r="B217">
-        <v>13.319999694824221</v>
+        <v>13.31999969482422</v>
       </c>
       <c r="C217">
         <v>13.39999961853027</v>
       </c>
       <c r="D217">
-        <v>13.210000038146971</v>
+        <v>13.21000003814697</v>
       </c>
       <c r="E217">
         <v>13.35000038146973</v>
@@ -5416,11 +5391,11 @@
       <c r="F217">
         <v>13.35000038146973</v>
       </c>
-      <c r="G217" s="4">
+      <c r="G217">
         <v>6197165</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:7">
       <c r="A218" s="2">
         <v>45254</v>
       </c>
@@ -5428,10 +5403,10 @@
         <v>13.27999973297119</v>
       </c>
       <c r="C218">
-        <v>13.340000152587891</v>
+        <v>13.34000015258789</v>
       </c>
       <c r="D218">
-        <v>13.210000038146971</v>
+        <v>13.21000003814697</v>
       </c>
       <c r="E218">
         <v>13.22999954223633</v>
@@ -5439,11 +5414,11 @@
       <c r="F218">
         <v>13.22999954223633</v>
       </c>
-      <c r="G218" s="4">
+      <c r="G218">
         <v>4426500</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:7">
       <c r="A219" s="2">
         <v>45257</v>
       </c>
@@ -5451,10 +5426,10 @@
         <v>13.22999954223633</v>
       </c>
       <c r="C219">
-        <v>13.329999923706049</v>
+        <v>13.32999992370605</v>
       </c>
       <c r="D219">
-        <v>13.090000152587891</v>
+        <v>13.09000015258789</v>
       </c>
       <c r="E219">
         <v>13.30000019073486</v>
@@ -5462,16 +5437,16 @@
       <c r="F219">
         <v>13.30000019073486</v>
       </c>
-      <c r="G219" s="4">
+      <c r="G219">
         <v>5064125</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:7">
       <c r="A220" s="2">
         <v>45258</v>
       </c>
       <c r="B220">
-        <v>13.310000419616699</v>
+        <v>13.3100004196167</v>
       </c>
       <c r="C220">
         <v>13.55000019073486</v>
@@ -5485,11 +5460,11 @@
       <c r="F220">
         <v>13.39000034332275</v>
       </c>
-      <c r="G220" s="4">
+      <c r="G220">
         <v>8336071</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:7">
       <c r="A221" s="2">
         <v>45259</v>
       </c>
@@ -5508,11 +5483,11 @@
       <c r="F221">
         <v>13.14999961853027</v>
       </c>
-      <c r="G221" s="4">
+      <c r="G221">
         <v>7086848</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:7">
       <c r="A222" s="2">
         <v>45260</v>
       </c>
@@ -5523,7 +5498,7 @@
         <v>13.25</v>
       </c>
       <c r="D222">
-        <v>13.079999923706049</v>
+        <v>13.07999992370605</v>
       </c>
       <c r="E222">
         <v>13.14999961853027</v>
@@ -5531,11 +5506,11 @@
       <c r="F222">
         <v>13.14999961853027</v>
       </c>
-      <c r="G222" s="4">
+      <c r="G222">
         <v>5182363</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:7">
       <c r="A223" s="2">
         <v>45261</v>
       </c>
@@ -5546,7 +5521,7 @@
         <v>13.19999980926514</v>
       </c>
       <c r="D223">
-        <v>12.909999847412109</v>
+        <v>12.90999984741211</v>
       </c>
       <c r="E223">
         <v>13</v>
@@ -5554,34 +5529,34 @@
       <c r="F223">
         <v>13</v>
       </c>
-      <c r="G223" s="4">
+      <c r="G223">
         <v>10254186</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:7">
       <c r="A224" s="2">
         <v>45264</v>
       </c>
       <c r="B224">
-        <v>12.989999771118161</v>
+        <v>12.98999977111816</v>
       </c>
       <c r="C224">
-        <v>13.010000228881839</v>
+        <v>13.01000022888184</v>
       </c>
       <c r="D224">
         <v>12.64999961853027</v>
       </c>
       <c r="E224">
-        <v>12.789999961853029</v>
+        <v>12.78999996185303</v>
       </c>
       <c r="F224">
-        <v>12.789999961853029</v>
-      </c>
-      <c r="G224" s="4">
+        <v>12.78999996185303</v>
+      </c>
+      <c r="G224">
         <v>11613800</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:7">
       <c r="A225" s="2">
         <v>45265</v>
       </c>
@@ -5595,16 +5570,16 @@
         <v>12.39999961853027</v>
       </c>
       <c r="E225">
-        <v>12.420000076293951</v>
+        <v>12.42000007629395</v>
       </c>
       <c r="F225">
-        <v>12.420000076293951</v>
-      </c>
-      <c r="G225" s="4">
+        <v>12.42000007629395</v>
+      </c>
+      <c r="G225">
         <v>8486200</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:7">
       <c r="A226" s="2">
         <v>45266</v>
       </c>
@@ -5615,7 +5590,7 @@
         <v>12.52999973297119</v>
       </c>
       <c r="D226">
-        <v>12.260000228881839</v>
+        <v>12.26000022888184</v>
       </c>
       <c r="E226">
         <v>12.35000038146973</v>
@@ -5623,22 +5598,22 @@
       <c r="F226">
         <v>12.35000038146973</v>
       </c>
-      <c r="G226" s="4">
+      <c r="G226">
         <v>8272515</v>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:7">
       <c r="A227" s="2">
         <v>45267</v>
       </c>
       <c r="B227">
-        <v>12.289999961853029</v>
+        <v>12.28999996185303</v>
       </c>
       <c r="C227">
-        <v>12.329999923706049</v>
+        <v>12.32999992370605</v>
       </c>
       <c r="D227">
-        <v>12.079999923706049</v>
+        <v>12.07999992370605</v>
       </c>
       <c r="E227">
         <v>12.10000038146973</v>
@@ -5646,57 +5621,57 @@
       <c r="F227">
         <v>12.10000038146973</v>
       </c>
-      <c r="G227" s="4">
+      <c r="G227">
         <v>10941000</v>
       </c>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:7">
       <c r="A228" s="2">
         <v>45268</v>
       </c>
       <c r="B228">
-        <v>12.090000152587891</v>
+        <v>12.09000015258789</v>
       </c>
       <c r="C228">
-        <v>12.329999923706049</v>
+        <v>12.32999992370605</v>
       </c>
       <c r="D228">
-        <v>12.060000419616699</v>
+        <v>12.0600004196167</v>
       </c>
       <c r="E228">
-        <v>12.239999771118161</v>
+        <v>12.23999977111816</v>
       </c>
       <c r="F228">
-        <v>12.239999771118161</v>
-      </c>
-      <c r="G228" s="4">
+        <v>12.23999977111816</v>
+      </c>
+      <c r="G228">
         <v>11366789</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:7">
       <c r="A229" s="2">
         <v>45271</v>
       </c>
       <c r="B229">
-        <v>12.180000305175779</v>
+        <v>12.18000030517578</v>
       </c>
       <c r="C229">
         <v>12.44999980926514</v>
       </c>
       <c r="D229">
-        <v>11.840000152587891</v>
+        <v>11.84000015258789</v>
       </c>
       <c r="E229">
-        <v>12.409999847412109</v>
+        <v>12.40999984741211</v>
       </c>
       <c r="F229">
-        <v>12.409999847412109</v>
-      </c>
-      <c r="G229" s="4">
+        <v>12.40999984741211</v>
+      </c>
+      <c r="G229">
         <v>12946300</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:7">
       <c r="A230" s="2">
         <v>45272</v>
       </c>
@@ -5710,16 +5685,16 @@
         <v>12.25</v>
       </c>
       <c r="E230">
-        <v>12.430000305175779</v>
+        <v>12.43000030517578</v>
       </c>
       <c r="F230">
-        <v>12.430000305175779</v>
-      </c>
-      <c r="G230" s="4">
+        <v>12.43000030517578</v>
+      </c>
+      <c r="G230">
         <v>7634000</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:7">
       <c r="A231" s="2">
         <v>45273</v>
       </c>
@@ -5738,11 +5713,11 @@
       <c r="F231">
         <v>12.14000034332275</v>
       </c>
-      <c r="G231" s="4">
+      <c r="G231">
         <v>6792779</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:7">
       <c r="A232" s="2">
         <v>45274</v>
       </c>
@@ -5761,34 +5736,34 @@
       <c r="F232">
         <v>12.19999980926514</v>
       </c>
-      <c r="G232" s="4">
+      <c r="G232">
         <v>8181854</v>
       </c>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:7">
       <c r="A233" s="2">
         <v>45275</v>
       </c>
       <c r="B233">
-        <v>12.260000228881839</v>
+        <v>12.26000022888184</v>
       </c>
       <c r="C233">
-        <v>12.260000228881839</v>
+        <v>12.26000022888184</v>
       </c>
       <c r="D233">
         <v>12</v>
       </c>
       <c r="E233">
-        <v>12.079999923706049</v>
+        <v>12.07999992370605</v>
       </c>
       <c r="F233">
-        <v>12.079999923706049</v>
-      </c>
-      <c r="G233" s="4">
+        <v>12.07999992370605</v>
+      </c>
+      <c r="G233">
         <v>9034600</v>
       </c>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:7">
       <c r="A234" s="2">
         <v>45278</v>
       </c>
@@ -5799,7 +5774,7 @@
         <v>12.22999954223633</v>
       </c>
       <c r="D234">
-        <v>11.930000305175779</v>
+        <v>11.93000030517578</v>
       </c>
       <c r="E234">
         <v>11.97999954223633</v>
@@ -5807,16 +5782,16 @@
       <c r="F234">
         <v>11.97999954223633</v>
       </c>
-      <c r="G234" s="4">
+      <c r="G234">
         <v>9789702</v>
       </c>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:7">
       <c r="A235" s="2">
         <v>45279</v>
       </c>
       <c r="B235">
-        <v>11.939999580383301</v>
+        <v>11.9399995803833</v>
       </c>
       <c r="C235">
         <v>11.97999954223633</v>
@@ -5830,11 +5805,11 @@
       <c r="F235">
         <v>11.88000011444092</v>
       </c>
-      <c r="G235" s="4">
+      <c r="G235">
         <v>10800920</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:7">
       <c r="A236" s="2">
         <v>45280</v>
       </c>
@@ -5842,27 +5817,27 @@
         <v>11.89999961853027</v>
       </c>
       <c r="C236">
-        <v>11.989999771118161</v>
+        <v>11.98999977111816</v>
       </c>
       <c r="D236">
-        <v>11.829999923706049</v>
+        <v>11.82999992370605</v>
       </c>
       <c r="E236">
-        <v>11.829999923706049</v>
+        <v>11.82999992370605</v>
       </c>
       <c r="F236">
-        <v>11.829999923706049</v>
-      </c>
-      <c r="G236" s="4">
+        <v>11.82999992370605</v>
+      </c>
+      <c r="G236">
         <v>8447479</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:7">
       <c r="A237" s="2">
         <v>45281</v>
       </c>
       <c r="B237">
-        <v>11.810000419616699</v>
+        <v>11.8100004196167</v>
       </c>
       <c r="C237">
         <v>11.97000026702881</v>
@@ -5871,21 +5846,21 @@
         <v>11.72999954223633</v>
       </c>
       <c r="E237">
-        <v>11.920000076293951</v>
+        <v>11.92000007629395</v>
       </c>
       <c r="F237">
-        <v>11.920000076293951</v>
-      </c>
-      <c r="G237" s="4">
+        <v>11.92000007629395</v>
+      </c>
+      <c r="G237">
         <v>9478943</v>
       </c>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:7">
       <c r="A238" s="2">
         <v>45282</v>
       </c>
       <c r="B238">
-        <v>11.930000305175779</v>
+        <v>11.93000030517578</v>
       </c>
       <c r="C238">
         <v>12.02999973297119</v>
@@ -5894,27 +5869,27 @@
         <v>11.69999980926514</v>
       </c>
       <c r="E238">
-        <v>11.939999580383301</v>
+        <v>11.9399995803833</v>
       </c>
       <c r="F238">
-        <v>11.939999580383301</v>
-      </c>
-      <c r="G238" s="4">
+        <v>11.9399995803833</v>
+      </c>
+      <c r="G238">
         <v>8612100</v>
       </c>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:7">
       <c r="A239" s="2">
         <v>45285</v>
       </c>
       <c r="B239">
-        <v>11.939999580383301</v>
+        <v>11.9399995803833</v>
       </c>
       <c r="C239">
-        <v>12.170000076293951</v>
+        <v>12.17000007629395</v>
       </c>
       <c r="D239">
-        <v>11.840000152587891</v>
+        <v>11.84000015258789</v>
       </c>
       <c r="E239">
         <v>12.10999965667725</v>
@@ -5922,11 +5897,11 @@
       <c r="F239">
         <v>12.10999965667725</v>
       </c>
-      <c r="G239" s="4">
+      <c r="G239">
         <v>10608400</v>
       </c>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:7">
       <c r="A240" s="2">
         <v>45286</v>
       </c>
@@ -5934,22 +5909,22 @@
         <v>12.10999965667725</v>
       </c>
       <c r="C240">
-        <v>12.159999847412109</v>
+        <v>12.15999984741211</v>
       </c>
       <c r="D240">
         <v>11.97000026702881</v>
       </c>
       <c r="E240">
-        <v>11.989999771118161</v>
+        <v>11.98999977111816</v>
       </c>
       <c r="F240">
-        <v>11.989999771118161</v>
-      </c>
-      <c r="G240" s="4">
+        <v>11.98999977111816</v>
+      </c>
+      <c r="G240">
         <v>5570109</v>
       </c>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:7">
       <c r="A241" s="2">
         <v>45287</v>
       </c>
@@ -5957,7 +5932,7 @@
         <v>11.97999954223633</v>
       </c>
       <c r="C241">
-        <v>12.090000152587891</v>
+        <v>12.09000015258789</v>
       </c>
       <c r="D241">
         <v>11.85999965667725</v>
@@ -5968,11 +5943,11 @@
       <c r="F241">
         <v>12</v>
       </c>
-      <c r="G241" s="4">
+      <c r="G241">
         <v>6377725</v>
       </c>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:7">
       <c r="A242" s="2">
         <v>45288</v>
       </c>
@@ -5980,45 +5955,45 @@
         <v>11.94999980926514</v>
       </c>
       <c r="C242">
-        <v>12.510000228881839</v>
+        <v>12.51000022888184</v>
       </c>
       <c r="D242">
         <v>11.88000011444092</v>
       </c>
       <c r="E242">
-        <v>12.460000038146971</v>
+        <v>12.46000003814697</v>
       </c>
       <c r="F242">
-        <v>12.460000038146971</v>
-      </c>
-      <c r="G242" s="4">
+        <v>12.46000003814697</v>
+      </c>
+      <c r="G242">
         <v>11658386</v>
       </c>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:7">
       <c r="A243" s="2">
         <v>45289</v>
       </c>
       <c r="B243">
-        <v>12.460000038146971</v>
+        <v>12.46000003814697</v>
       </c>
       <c r="C243">
-        <v>12.539999961853029</v>
+        <v>12.53999996185303</v>
       </c>
       <c r="D243">
-        <v>12.260000228881839</v>
+        <v>12.26000022888184</v>
       </c>
       <c r="E243">
-        <v>12.289999961853029</v>
+        <v>12.28999996185303</v>
       </c>
       <c r="F243">
-        <v>12.289999961853029</v>
-      </c>
-      <c r="G243" s="4">
+        <v>12.28999996185303</v>
+      </c>
+      <c r="G243">
         <v>9812400</v>
       </c>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:7">
       <c r="A244" s="2">
         <v>45293</v>
       </c>
@@ -6026,33 +6001,33 @@
         <v>12.27999973297119</v>
       </c>
       <c r="C244">
-        <v>12.329999923706049</v>
+        <v>12.32999992370605</v>
       </c>
       <c r="D244">
-        <v>12.090000152587891</v>
+        <v>12.09000015258789</v>
       </c>
       <c r="E244">
-        <v>12.210000038146971</v>
+        <v>12.21000003814697</v>
       </c>
       <c r="F244">
-        <v>12.210000038146971</v>
-      </c>
-      <c r="G244" s="4">
+        <v>12.21000003814697</v>
+      </c>
+      <c r="G244">
         <v>9205904</v>
       </c>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:7">
       <c r="A245" s="2">
         <v>45294</v>
       </c>
       <c r="B245">
-        <v>12.180000305175779</v>
+        <v>12.18000030517578</v>
       </c>
       <c r="C245">
         <v>12.30000019073486</v>
       </c>
       <c r="D245">
-        <v>12.090000152587891</v>
+        <v>12.09000015258789</v>
       </c>
       <c r="E245">
         <v>12.14999961853027</v>
@@ -6060,11 +6035,11 @@
       <c r="F245">
         <v>12.14999961853027</v>
       </c>
-      <c r="G245" s="4">
+      <c r="G245">
         <v>6547152</v>
       </c>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:7">
       <c r="A246" s="2">
         <v>45295</v>
       </c>
@@ -6072,7 +6047,7 @@
         <v>12.14999961853027</v>
       </c>
       <c r="C246">
-        <v>12.159999847412109</v>
+        <v>12.15999984741211</v>
       </c>
       <c r="D246">
         <v>11.97000026702881</v>
@@ -6083,11 +6058,11 @@
       <c r="F246">
         <v>12.10000038146973</v>
       </c>
-      <c r="G246" s="4">
+      <c r="G246">
         <v>6588423</v>
       </c>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:7">
       <c r="A247" s="2">
         <v>45296</v>
       </c>
@@ -6095,7 +6070,7 @@
         <v>12.10000038146973</v>
       </c>
       <c r="C247">
-        <v>12.210000038146971</v>
+        <v>12.21000003814697</v>
       </c>
       <c r="D247">
         <v>11.89999961853027</v>
@@ -6106,16 +6081,16 @@
       <c r="F247">
         <v>12</v>
       </c>
-      <c r="G247" s="4">
+      <c r="G247">
         <v>7149221</v>
       </c>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:7">
       <c r="A248" s="2">
         <v>45299</v>
       </c>
       <c r="B248">
-        <v>11.960000038146971</v>
+        <v>11.96000003814697</v>
       </c>
       <c r="C248">
         <v>12.02000045776367</v>
@@ -6129,11 +6104,11 @@
       <c r="F248">
         <v>11.61999988555908</v>
       </c>
-      <c r="G248" s="4">
+      <c r="G248">
         <v>9337996</v>
       </c>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:7">
       <c r="A249" s="2">
         <v>45300</v>
       </c>
@@ -6147,21 +6122,21 @@
         <v>11.52000045776367</v>
       </c>
       <c r="E249">
-        <v>11.739999771118161</v>
+        <v>11.73999977111816</v>
       </c>
       <c r="F249">
-        <v>11.739999771118161</v>
-      </c>
-      <c r="G249" s="4">
+        <v>11.73999977111816</v>
+      </c>
+      <c r="G249">
         <v>11637827</v>
       </c>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:7">
       <c r="A250" s="2">
         <v>45301</v>
       </c>
       <c r="B250">
-        <v>11.760000228881839</v>
+        <v>11.76000022888184</v>
       </c>
       <c r="C250">
         <v>12.02000045776367</v>
@@ -6170,16 +6145,16 @@
         <v>11.61999988555908</v>
       </c>
       <c r="E250">
-        <v>11.930000305175779</v>
+        <v>11.93000030517578</v>
       </c>
       <c r="F250">
-        <v>11.930000305175779</v>
-      </c>
-      <c r="G250" s="4">
+        <v>11.93000030517578</v>
+      </c>
+      <c r="G250">
         <v>9114856</v>
       </c>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:7">
       <c r="A251" s="2">
         <v>45302</v>
       </c>
@@ -6187,10 +6162,10 @@
         <v>11.88000011444092</v>
       </c>
       <c r="C251">
-        <v>12.060000419616699</v>
+        <v>12.0600004196167</v>
       </c>
       <c r="D251">
-        <v>11.840000152587891</v>
+        <v>11.84000015258789</v>
       </c>
       <c r="E251">
         <v>11.94999980926514</v>
@@ -6198,16 +6173,16 @@
       <c r="F251">
         <v>11.94999980926514</v>
       </c>
-      <c r="G251" s="4">
+      <c r="G251">
         <v>6677503</v>
       </c>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:7">
       <c r="A252" s="2">
         <v>45303</v>
       </c>
       <c r="B252">
-        <v>11.960000038146971</v>
+        <v>11.96000003814697</v>
       </c>
       <c r="C252">
         <v>12.14999961853027</v>
@@ -6216,16 +6191,16 @@
         <v>11.88000011444092</v>
       </c>
       <c r="E252">
-        <v>11.989999771118161</v>
+        <v>11.98999977111816</v>
       </c>
       <c r="F252">
-        <v>11.989999771118161</v>
-      </c>
-      <c r="G252" s="4">
+        <v>11.98999977111816</v>
+      </c>
+      <c r="G252">
         <v>10352100</v>
       </c>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:7">
       <c r="A253" s="2">
         <v>45306</v>
       </c>
@@ -6244,11 +6219,11 @@
       <c r="F253">
         <v>11.97999954223633</v>
       </c>
-      <c r="G253" s="4">
+      <c r="G253">
         <v>7620700</v>
       </c>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:7">
       <c r="A254" s="2">
         <v>45307</v>
       </c>
@@ -6256,7 +6231,7 @@
         <v>11.97999954223633</v>
       </c>
       <c r="C254">
-        <v>12.180000305175779</v>
+        <v>12.18000030517578</v>
       </c>
       <c r="D254">
         <v>11.89999961853027</v>
@@ -6267,11 +6242,11 @@
       <c r="F254">
         <v>12.14999961853027</v>
       </c>
-      <c r="G254" s="4">
+      <c r="G254">
         <v>11902465</v>
       </c>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:7">
       <c r="A255" s="2">
         <v>45308</v>
       </c>
@@ -6279,22 +6254,22 @@
         <v>12.13000011444092</v>
       </c>
       <c r="C255">
-        <v>12.189999580383301</v>
+        <v>12.1899995803833</v>
       </c>
       <c r="D255">
         <v>11.89999961853027</v>
       </c>
       <c r="E255">
-        <v>11.930000305175779</v>
+        <v>11.93000030517578</v>
       </c>
       <c r="F255">
-        <v>11.930000305175779</v>
-      </c>
-      <c r="G255" s="4">
+        <v>11.93000030517578</v>
+      </c>
+      <c r="G255">
         <v>12636794</v>
       </c>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:7">
       <c r="A256" s="2">
         <v>45309</v>
       </c>
@@ -6305,7 +6280,7 @@
         <v>12.10000038146973</v>
       </c>
       <c r="D256">
-        <v>11.659999847412109</v>
+        <v>11.65999984741211</v>
       </c>
       <c r="E256">
         <v>12.05000019073486</v>
@@ -6313,11 +6288,11 @@
       <c r="F256">
         <v>12.05000019073486</v>
       </c>
-      <c r="G256" s="4">
+      <c r="G256">
         <v>15718015</v>
       </c>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:7">
       <c r="A257" s="2">
         <v>45310</v>
       </c>
@@ -6336,11 +6311,11 @@
       <c r="F257">
         <v>12.02000045776367</v>
       </c>
-      <c r="G257" s="4">
+      <c r="G257">
         <v>12410372</v>
       </c>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:7">
       <c r="A258" s="2">
         <v>45313</v>
       </c>
@@ -6348,22 +6323,22 @@
         <v>11.97999954223633</v>
       </c>
       <c r="C258">
-        <v>11.989999771118161</v>
+        <v>11.98999977111816</v>
       </c>
       <c r="D258">
         <v>11.5</v>
       </c>
       <c r="E258">
-        <v>11.579999923706049</v>
+        <v>11.57999992370605</v>
       </c>
       <c r="F258">
-        <v>11.579999923706049</v>
-      </c>
-      <c r="G258" s="4">
+        <v>11.57999992370605</v>
+      </c>
+      <c r="G258">
         <v>14415505</v>
       </c>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:7">
       <c r="A259" s="2">
         <v>45314</v>
       </c>
@@ -6377,16 +6352,16 @@
         <v>11.35000038146973</v>
       </c>
       <c r="E259">
-        <v>11.670000076293951</v>
+        <v>11.67000007629395</v>
       </c>
       <c r="F259">
-        <v>11.670000076293951</v>
-      </c>
-      <c r="G259" s="4">
+        <v>11.67000007629395</v>
+      </c>
+      <c r="G259">
         <v>11273505</v>
       </c>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:7">
       <c r="A260" s="2">
         <v>45315</v>
       </c>
@@ -6397,47 +6372,47 @@
         <v>12.02000045776367</v>
       </c>
       <c r="D260">
-        <v>11.539999961853029</v>
+        <v>11.53999996185303</v>
       </c>
       <c r="E260">
-        <v>11.960000038146971</v>
+        <v>11.96000003814697</v>
       </c>
       <c r="F260">
-        <v>11.960000038146971</v>
-      </c>
-      <c r="G260" s="4">
+        <v>11.96000003814697</v>
+      </c>
+      <c r="G260">
         <v>14446285</v>
       </c>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:7">
       <c r="A261" s="2">
         <v>45316</v>
       </c>
       <c r="B261">
-        <v>11.960000038146971</v>
+        <v>11.96000003814697</v>
       </c>
       <c r="C261">
-        <v>12.079999923706049</v>
+        <v>12.07999992370605</v>
       </c>
       <c r="D261">
         <v>11.85999965667725</v>
       </c>
       <c r="E261">
-        <v>12.039999961853029</v>
+        <v>12.03999996185303</v>
       </c>
       <c r="F261">
-        <v>12.039999961853029</v>
-      </c>
-      <c r="G261" s="4">
+        <v>12.03999996185303</v>
+      </c>
+      <c r="G261">
         <v>9504825</v>
       </c>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:7">
       <c r="A262" s="2">
         <v>45317</v>
       </c>
       <c r="B262">
-        <v>11.939999580383301</v>
+        <v>11.9399995803833</v>
       </c>
       <c r="C262">
         <v>12.02999973297119</v>
@@ -6451,11 +6426,11 @@
       <c r="F262">
         <v>11.64000034332275</v>
       </c>
-      <c r="G262" s="4">
+      <c r="G262">
         <v>17968699</v>
       </c>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:7">
       <c r="A263" s="2">
         <v>45320</v>
       </c>
@@ -6463,45 +6438,45 @@
         <v>11.64000034332275</v>
       </c>
       <c r="C263">
-        <v>11.680000305175779</v>
+        <v>11.68000030517578</v>
       </c>
       <c r="D263">
         <v>11.38000011444092</v>
       </c>
       <c r="E263">
-        <v>11.510000228881839</v>
+        <v>11.51000022888184</v>
       </c>
       <c r="F263">
-        <v>11.510000228881839</v>
-      </c>
-      <c r="G263" s="4">
+        <v>11.51000022888184</v>
+      </c>
+      <c r="G263">
         <v>12690139</v>
       </c>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:7">
       <c r="A264" s="2">
         <v>45321</v>
       </c>
       <c r="B264">
-        <v>11.430000305175779</v>
+        <v>11.43000030517578</v>
       </c>
       <c r="C264">
         <v>11.47000026702881</v>
       </c>
       <c r="D264">
-        <v>10.920000076293951</v>
+        <v>10.92000007629395</v>
       </c>
       <c r="E264">
-        <v>10.939999580383301</v>
+        <v>10.9399995803833</v>
       </c>
       <c r="F264">
-        <v>10.939999580383301</v>
-      </c>
-      <c r="G264" s="4">
+        <v>10.9399995803833</v>
+      </c>
+      <c r="G264">
         <v>14470406</v>
       </c>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:7">
       <c r="A265" s="2">
         <v>45322</v>
       </c>
@@ -6515,44 +6490,44 @@
         <v>10.85000038146973</v>
       </c>
       <c r="E265">
-        <v>11.159999847412109</v>
+        <v>11.15999984741211</v>
       </c>
       <c r="F265">
-        <v>11.159999847412109</v>
-      </c>
-      <c r="G265" s="4">
+        <v>11.15999984741211</v>
+      </c>
+      <c r="G265">
         <v>21248770</v>
       </c>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:7">
       <c r="A266" s="2">
         <v>45323</v>
       </c>
       <c r="B266">
-        <v>11.090000152587891</v>
+        <v>11.09000015258789</v>
       </c>
       <c r="C266">
-        <v>11.510000228881839</v>
+        <v>11.51000022888184</v>
       </c>
       <c r="D266">
-        <v>11.010000228881839</v>
+        <v>11.01000022888184</v>
       </c>
       <c r="E266">
-        <v>11.420000076293951</v>
+        <v>11.42000007629395</v>
       </c>
       <c r="F266">
-        <v>11.420000076293951</v>
-      </c>
-      <c r="G266" s="4">
+        <v>11.42000007629395</v>
+      </c>
+      <c r="G266">
         <v>22895591</v>
       </c>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:7">
       <c r="A267" s="2">
         <v>45324</v>
       </c>
       <c r="B267">
-        <v>11.430000305175779</v>
+        <v>11.43000030517578</v>
       </c>
       <c r="C267">
         <v>11.47000026702881</v>
@@ -6561,16 +6536,16 @@
         <v>10.85999965667725</v>
       </c>
       <c r="E267">
-        <v>11.079999923706049</v>
+        <v>11.07999992370605</v>
       </c>
       <c r="F267">
-        <v>11.079999923706049</v>
-      </c>
-      <c r="G267" s="4">
+        <v>11.07999992370605</v>
+      </c>
+      <c r="G267">
         <v>20431303</v>
       </c>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:7">
       <c r="A268" s="2">
         <v>45327</v>
       </c>
@@ -6578,53 +6553,53 @@
         <v>11.10999965667725</v>
       </c>
       <c r="C268">
-        <v>11.260000228881839</v>
+        <v>11.26000022888184</v>
       </c>
       <c r="D268">
         <v>10.72000026702881</v>
       </c>
       <c r="E268">
-        <v>11.079999923706049</v>
+        <v>11.07999992370605</v>
       </c>
       <c r="F268">
-        <v>11.079999923706049</v>
-      </c>
-      <c r="G268" s="4">
+        <v>11.07999992370605</v>
+      </c>
+      <c r="G268">
         <v>17227472</v>
       </c>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:7">
       <c r="A269" s="2">
         <v>45328</v>
       </c>
       <c r="B269">
-        <v>11.079999923706049</v>
+        <v>11.07999992370605</v>
       </c>
       <c r="C269">
-        <v>12.039999961853029</v>
+        <v>12.03999996185303</v>
       </c>
       <c r="D269">
         <v>11.05000019073486</v>
       </c>
       <c r="E269">
-        <v>12.010000228881839</v>
+        <v>12.01000022888184</v>
       </c>
       <c r="F269">
-        <v>12.010000228881839</v>
-      </c>
-      <c r="G269" s="4">
+        <v>12.01000022888184</v>
+      </c>
+      <c r="G269">
         <v>26113772</v>
       </c>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:7">
       <c r="A270" s="2">
         <v>45329</v>
       </c>
       <c r="B270">
-        <v>12.090000152587891</v>
+        <v>12.09000015258789</v>
       </c>
       <c r="C270">
-        <v>12.460000038146971</v>
+        <v>12.46000003814697</v>
       </c>
       <c r="D270">
         <v>11.97999954223633</v>
@@ -6635,11 +6610,11 @@
       <c r="F270">
         <v>12.27000045776367</v>
       </c>
-      <c r="G270" s="4">
+      <c r="G270">
         <v>20417371</v>
       </c>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:7">
       <c r="A271" s="2">
         <v>45330</v>
       </c>
@@ -6647,22 +6622,22 @@
         <v>12.27999973297119</v>
       </c>
       <c r="C271">
-        <v>12.460000038146971</v>
+        <v>12.46000003814697</v>
       </c>
       <c r="D271">
         <v>12.02999973297119</v>
       </c>
       <c r="E271">
-        <v>12.210000038146971</v>
+        <v>12.21000003814697</v>
       </c>
       <c r="F271">
-        <v>12.210000038146971</v>
-      </c>
-      <c r="G271" s="4">
+        <v>12.21000003814697</v>
+      </c>
+      <c r="G271">
         <v>17205185</v>
       </c>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:7">
       <c r="A272" s="2">
         <v>45341</v>
       </c>
@@ -6670,30 +6645,30 @@
         <v>12.27000045776367</v>
       </c>
       <c r="C272">
-        <v>12.439999580383301</v>
+        <v>12.4399995803833</v>
       </c>
       <c r="D272">
-        <v>12.239999771118161</v>
+        <v>12.23999977111816</v>
       </c>
       <c r="E272">
-        <v>12.409999847412109</v>
+        <v>12.40999984741211</v>
       </c>
       <c r="F272">
-        <v>12.409999847412109</v>
-      </c>
-      <c r="G272" s="4">
+        <v>12.40999984741211</v>
+      </c>
+      <c r="G272">
         <v>12402505</v>
       </c>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:7">
       <c r="A273" s="2">
         <v>45342</v>
       </c>
       <c r="B273">
-        <v>12.409999847412109</v>
+        <v>12.40999984741211</v>
       </c>
       <c r="C273">
-        <v>12.489999771118161</v>
+        <v>12.48999977111816</v>
       </c>
       <c r="D273">
         <v>12.30000019073486</v>
@@ -6704,11 +6679,11 @@
       <c r="F273">
         <v>12.47000026702881</v>
       </c>
-      <c r="G273" s="4">
+      <c r="G273">
         <v>7487275</v>
       </c>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:7">
       <c r="A274" s="2">
         <v>45343</v>
       </c>
@@ -6722,16 +6697,16 @@
         <v>12.35000038146973</v>
       </c>
       <c r="E274">
-        <v>12.539999961853029</v>
+        <v>12.53999996185303</v>
       </c>
       <c r="F274">
-        <v>12.539999961853029</v>
-      </c>
-      <c r="G274" s="4">
+        <v>12.53999996185303</v>
+      </c>
+      <c r="G274">
         <v>13036221</v>
       </c>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:7">
       <c r="A275" s="2">
         <v>45344</v>
       </c>
@@ -6745,21 +6720,21 @@
         <v>12.47000026702881</v>
       </c>
       <c r="E275">
-        <v>12.689999580383301</v>
+        <v>12.6899995803833</v>
       </c>
       <c r="F275">
-        <v>12.689999580383301</v>
-      </c>
-      <c r="G275" s="4">
+        <v>12.6899995803833</v>
+      </c>
+      <c r="G275">
         <v>6977014</v>
       </c>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:7">
       <c r="A276" s="2">
         <v>45345</v>
       </c>
       <c r="B276">
-        <v>12.689999580383301</v>
+        <v>12.6899995803833</v>
       </c>
       <c r="C276">
         <v>13.14000034332275</v>
@@ -6768,16 +6743,16 @@
         <v>12.63000011444092</v>
       </c>
       <c r="E276">
-        <v>13.069999694824221</v>
+        <v>13.06999969482422</v>
       </c>
       <c r="F276">
-        <v>13.069999694824221</v>
-      </c>
-      <c r="G276" s="4">
+        <v>13.06999969482422</v>
+      </c>
+      <c r="G276">
         <v>18202258</v>
       </c>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:7">
       <c r="A277" s="2">
         <v>45348</v>
       </c>
@@ -6785,7 +6760,7 @@
         <v>13.27000045776367</v>
       </c>
       <c r="C277">
-        <v>13.329999923706049</v>
+        <v>13.32999992370605</v>
       </c>
       <c r="D277">
         <v>12.88000011444092</v>
@@ -6796,17 +6771,241 @@
       <c r="F277">
         <v>12.88000011444092</v>
       </c>
-      <c r="G277" s="4">
+      <c r="G277">
         <v>15776700</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7">
+      <c r="A278" s="2">
+        <v>45349</v>
+      </c>
+      <c r="B278">
+        <v>12.80000019073486</v>
+      </c>
+      <c r="C278">
+        <v>12.92000007629395</v>
+      </c>
+      <c r="D278">
+        <v>12.69999980926514</v>
+      </c>
+      <c r="E278">
+        <v>12.82999992370605</v>
+      </c>
+      <c r="F278">
+        <v>12.82999992370605</v>
+      </c>
+      <c r="G278">
+        <v>11386120</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7">
+      <c r="A279" s="2">
+        <v>45350</v>
+      </c>
+      <c r="B279">
+        <v>12.80000019073486</v>
+      </c>
+      <c r="C279">
+        <v>12.85000038146973</v>
+      </c>
+      <c r="D279">
+        <v>12.55000019073486</v>
+      </c>
+      <c r="E279">
+        <v>12.5600004196167</v>
+      </c>
+      <c r="F279">
+        <v>12.5600004196167</v>
+      </c>
+      <c r="G279">
+        <v>12029881</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7">
+      <c r="A280" s="2">
+        <v>45351</v>
+      </c>
+      <c r="B280">
+        <v>12.48999977111816</v>
+      </c>
+      <c r="C280">
+        <v>12.78999996185303</v>
+      </c>
+      <c r="D280">
+        <v>12.44999980926514</v>
+      </c>
+      <c r="E280">
+        <v>12.75</v>
+      </c>
+      <c r="F280">
+        <v>12.75</v>
+      </c>
+      <c r="G280">
+        <v>10968668</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7">
+      <c r="A281" s="2">
+        <v>45352</v>
+      </c>
+      <c r="B281">
+        <v>12.77000045776367</v>
+      </c>
+      <c r="C281">
+        <v>12.81999969482422</v>
+      </c>
+      <c r="D281">
+        <v>12.60999965667725</v>
+      </c>
+      <c r="E281">
+        <v>12.6899995803833</v>
+      </c>
+      <c r="F281">
+        <v>12.6899995803833</v>
+      </c>
+      <c r="G281">
+        <v>8472402</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7">
+      <c r="A282" s="2">
+        <v>45355</v>
+      </c>
+      <c r="B282">
+        <v>12.6899995803833</v>
+      </c>
+      <c r="C282">
+        <v>12.98999977111816</v>
+      </c>
+      <c r="D282">
+        <v>12.67000007629395</v>
+      </c>
+      <c r="E282">
+        <v>12.69999980926514</v>
+      </c>
+      <c r="F282">
+        <v>12.69999980926514</v>
+      </c>
+      <c r="G282">
+        <v>15381728</v>
+      </c>
+    </row>
+    <row r="283" spans="1:7">
+      <c r="A283" s="2">
+        <v>45356</v>
+      </c>
+      <c r="B283">
+        <v>12.64999961853027</v>
+      </c>
+      <c r="C283">
+        <v>12.81999969482422</v>
+      </c>
+      <c r="D283">
+        <v>12.64999961853027</v>
+      </c>
+      <c r="E283">
+        <v>12.6899995803833</v>
+      </c>
+      <c r="F283">
+        <v>12.6899995803833</v>
+      </c>
+      <c r="G283">
+        <v>9479404</v>
+      </c>
+    </row>
+    <row r="284" spans="1:7">
+      <c r="A284" s="2">
+        <v>45357</v>
+      </c>
+      <c r="B284">
+        <v>12.6899995803833</v>
+      </c>
+      <c r="C284">
+        <v>12.77000045776367</v>
+      </c>
+      <c r="D284">
+        <v>12.55000019073486</v>
+      </c>
+      <c r="E284">
+        <v>12.56999969482422</v>
+      </c>
+      <c r="F284">
+        <v>12.56999969482422</v>
+      </c>
+      <c r="G284">
+        <v>7080366</v>
+      </c>
+    </row>
+    <row r="285" spans="1:7">
+      <c r="A285" s="2">
+        <v>45358</v>
+      </c>
+      <c r="B285">
+        <v>12.56999969482422</v>
+      </c>
+      <c r="C285">
+        <v>12.82999992370605</v>
+      </c>
+      <c r="D285">
+        <v>12.51000022888184</v>
+      </c>
+      <c r="E285">
+        <v>12.68000030517578</v>
+      </c>
+      <c r="F285">
+        <v>12.68000030517578</v>
+      </c>
+      <c r="G285">
+        <v>6820483</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7">
+      <c r="A286" s="2">
+        <v>45359</v>
+      </c>
+      <c r="B286">
+        <v>12.68000030517578</v>
+      </c>
+      <c r="C286">
+        <v>12.80000019073486</v>
+      </c>
+      <c r="D286">
+        <v>12.52000045776367</v>
+      </c>
+      <c r="E286">
+        <v>12.57999992370605</v>
+      </c>
+      <c r="F286">
+        <v>12.57999992370605</v>
+      </c>
+      <c r="G286">
+        <v>7981004</v>
+      </c>
+    </row>
+    <row r="287" spans="1:7">
+      <c r="A287" s="2">
+        <v>45362</v>
+      </c>
+      <c r="B287">
+        <v>12.60999965667725</v>
+      </c>
+      <c r="C287">
+        <v>13.19999980926514</v>
+      </c>
+      <c r="D287">
+        <v>12.5600004196167</v>
+      </c>
+      <c r="E287">
+        <v>13.14999961853027</v>
+      </c>
+      <c r="F287">
+        <v>13.14999961853027</v>
+      </c>
+      <c r="G287">
+        <v>14133384</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
-<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
-  <clbl:label id="{f42aa342-8706-4288-bd11-ebb85995028c}" enabled="1" method="Standard" siteId="{72f988bf-86f1-41af-91ab-2d7cd011db47}" contentBits="0" removed="0"/>
-</clbl:labelList>
 </file>
--- a/LSTM/600233.xlsx
+++ b/LSTM/600233.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G287"/>
+  <dimension ref="A1:G288"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6990,19 +6990,42 @@
         <v>12.60999965667725</v>
       </c>
       <c r="C287">
-        <v>13.19999980926514</v>
+        <v>13.32999992370605</v>
       </c>
       <c r="D287">
         <v>12.5600004196167</v>
       </c>
       <c r="E287">
+        <v>13.30000019073486</v>
+      </c>
+      <c r="F287">
+        <v>13.30000019073486</v>
+      </c>
+      <c r="G287">
+        <v>22529806</v>
+      </c>
+    </row>
+    <row r="288" spans="1:7">
+      <c r="A288" s="2">
+        <v>45363</v>
+      </c>
+      <c r="B288">
         <v>13.14999961853027</v>
       </c>
-      <c r="F287">
-        <v>13.14999961853027</v>
-      </c>
-      <c r="G287">
-        <v>14133384</v>
+      <c r="C288">
+        <v>14.05000019073486</v>
+      </c>
+      <c r="D288">
+        <v>13</v>
+      </c>
+      <c r="E288">
+        <v>13.94999980926514</v>
+      </c>
+      <c r="F288">
+        <v>13.94999980926514</v>
+      </c>
+      <c r="G288">
+        <v>25657155</v>
       </c>
     </row>
   </sheetData>
